--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2372660904026418</v>
+        <v>0.2372660904029544</v>
       </c>
       <c r="D2">
-        <v>0.9098614405455976</v>
+        <v>0.9098614405457965</v>
       </c>
       <c r="E2">
-        <v>0.4781303140483217</v>
+        <v>0.4781303140482791</v>
       </c>
       <c r="F2">
-        <v>20.70638287195931</v>
+        <v>20.70638287195902</v>
       </c>
       <c r="G2">
-        <v>17.99634731128407</v>
+        <v>17.99634731128384</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8312930268022427</v>
+        <v>0.8312930268022143</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1829464530661795</v>
+        <v>0.1829464530653411</v>
       </c>
       <c r="D3">
-        <v>0.6946707701974617</v>
+        <v>0.6946707701973196</v>
       </c>
       <c r="E3">
-        <v>0.3644782247308243</v>
+        <v>0.3644782247308171</v>
       </c>
       <c r="F3">
-        <v>15.94172447255528</v>
+        <v>15.94172447255494</v>
       </c>
       <c r="G3">
-        <v>13.84559204680286</v>
+        <v>13.84559204680258</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6339301942730913</v>
+        <v>0.6339301942730202</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1570362191040999</v>
+        <v>0.1570362191041283</v>
       </c>
       <c r="D4">
-        <v>0.5937009309754728</v>
+        <v>0.593700930975217</v>
       </c>
       <c r="E4">
-        <v>0.3114035226782192</v>
+        <v>0.3114035226782761</v>
       </c>
       <c r="F4">
-        <v>13.68602299289637</v>
+        <v>13.68602299289671</v>
       </c>
       <c r="G4">
-        <v>11.88174168395102</v>
+        <v>11.8817416839513</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5416126767355394</v>
+        <v>0.5416126767355891</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1474766143046509</v>
+        <v>0.147476614305603</v>
       </c>
       <c r="D5">
-        <v>0.5566861998256911</v>
+        <v>0.5566861998252648</v>
       </c>
       <c r="E5">
-        <v>0.2919897978985233</v>
+        <v>0.2919897978985304</v>
       </c>
       <c r="F5">
-        <v>12.85652604145923</v>
+        <v>12.85652604145918</v>
       </c>
       <c r="G5">
         <v>11.15972065453161</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5078188095104395</v>
+        <v>0.5078188095104323</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1459360881082148</v>
+        <v>0.1459360881090532</v>
       </c>
       <c r="D6">
-        <v>0.5507326926082499</v>
+        <v>0.550732692607852</v>
       </c>
       <c r="E6">
-        <v>0.2888695199370233</v>
+        <v>0.2888695199370375</v>
       </c>
       <c r="F6">
-        <v>12.72299357737518</v>
+        <v>12.72299357737523</v>
       </c>
       <c r="G6">
-        <v>11.04349638573802</v>
+        <v>11.04349638573811</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5023859183278176</v>
+        <v>0.5023859183278319</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1569039060396307</v>
+        <v>0.156903906039247</v>
       </c>
       <c r="D7">
         <v>0.5931877714057805</v>
       </c>
       <c r="E7">
-        <v>0.311134214777546</v>
+        <v>0.3111342147775034</v>
       </c>
       <c r="F7">
         <v>13.67453185822626</v>
       </c>
       <c r="G7">
-        <v>11.87173891597737</v>
+        <v>11.87173891597743</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5411439849877766</v>
+        <v>0.5411439849877695</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D8">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E8">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F8">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G8">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D9">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E9">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F9">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G9">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D10">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E10">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F10">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G10">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D11">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E11">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F11">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G11">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D12">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E12">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F12">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G12">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D13">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E13">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F13">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G13">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D14">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E14">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F14">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G14">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D15">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E15">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F15">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G15">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D16">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E16">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F16">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G16">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D17">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E17">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F17">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G17">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D18">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E18">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F18">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G18">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D19">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E19">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F19">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G19">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D20">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E20">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F20">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G20">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D21">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E21">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F21">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G21">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D22">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E22">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F22">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G22">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D23">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E23">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F23">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G23">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D24">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E24">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F24">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G24">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2161129986944701</v>
+        <v>0.2161129986941148</v>
       </c>
       <c r="D25">
-        <v>0.8254425662917697</v>
+        <v>0.8254425662915992</v>
       </c>
       <c r="E25">
-        <v>0.4334594964217473</v>
+        <v>0.4334594964216976</v>
       </c>
       <c r="F25">
-        <v>18.84503014261554</v>
+        <v>18.84503014261571</v>
       </c>
       <c r="G25">
-        <v>16.37434572268268</v>
+        <v>16.37434572268273</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7537706733313669</v>
+        <v>0.7537706733314167</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2372660904029544</v>
+        <v>0.2372660904026418</v>
       </c>
       <c r="D2">
-        <v>0.9098614405457965</v>
+        <v>0.9098614405455976</v>
       </c>
       <c r="E2">
-        <v>0.4781303140482791</v>
+        <v>0.4781303140483217</v>
       </c>
       <c r="F2">
-        <v>20.70638287195902</v>
+        <v>20.70638287195931</v>
       </c>
       <c r="G2">
-        <v>17.99634731128384</v>
+        <v>17.99634731128407</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8312930268022143</v>
+        <v>0.8312930268022427</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1829464530653411</v>
+        <v>0.1829464530661795</v>
       </c>
       <c r="D3">
-        <v>0.6946707701973196</v>
+        <v>0.6946707701974617</v>
       </c>
       <c r="E3">
-        <v>0.3644782247308171</v>
+        <v>0.3644782247308243</v>
       </c>
       <c r="F3">
-        <v>15.94172447255494</v>
+        <v>15.94172447255528</v>
       </c>
       <c r="G3">
-        <v>13.84559204680258</v>
+        <v>13.84559204680286</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6339301942730202</v>
+        <v>0.6339301942730913</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1570362191041283</v>
+        <v>0.1570362191040999</v>
       </c>
       <c r="D4">
-        <v>0.593700930975217</v>
+        <v>0.5937009309754728</v>
       </c>
       <c r="E4">
-        <v>0.3114035226782761</v>
+        <v>0.3114035226782192</v>
       </c>
       <c r="F4">
-        <v>13.68602299289671</v>
+        <v>13.68602299289637</v>
       </c>
       <c r="G4">
-        <v>11.8817416839513</v>
+        <v>11.88174168395102</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5416126767355891</v>
+        <v>0.5416126767355394</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.147476614305603</v>
+        <v>0.1474766143046509</v>
       </c>
       <c r="D5">
-        <v>0.5566861998252648</v>
+        <v>0.5566861998256911</v>
       </c>
       <c r="E5">
-        <v>0.2919897978985304</v>
+        <v>0.2919897978985233</v>
       </c>
       <c r="F5">
-        <v>12.85652604145918</v>
+        <v>12.85652604145923</v>
       </c>
       <c r="G5">
         <v>11.15972065453161</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5078188095104323</v>
+        <v>0.5078188095104395</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1459360881090532</v>
+        <v>0.1459360881082148</v>
       </c>
       <c r="D6">
-        <v>0.550732692607852</v>
+        <v>0.5507326926082499</v>
       </c>
       <c r="E6">
-        <v>0.2888695199370375</v>
+        <v>0.2888695199370233</v>
       </c>
       <c r="F6">
-        <v>12.72299357737523</v>
+        <v>12.72299357737518</v>
       </c>
       <c r="G6">
-        <v>11.04349638573811</v>
+        <v>11.04349638573802</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5023859183278319</v>
+        <v>0.5023859183278176</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.156903906039247</v>
+        <v>0.1569039060396307</v>
       </c>
       <c r="D7">
         <v>0.5931877714057805</v>
       </c>
       <c r="E7">
-        <v>0.3111342147775034</v>
+        <v>0.311134214777546</v>
       </c>
       <c r="F7">
         <v>13.67453185822626</v>
       </c>
       <c r="G7">
-        <v>11.87173891597743</v>
+        <v>11.87173891597737</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5411439849877695</v>
+        <v>0.5411439849877766</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D8">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E8">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F8">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G8">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D9">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E9">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F9">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G9">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D10">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E10">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F10">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G10">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D11">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E11">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F11">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G11">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D12">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E12">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F12">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G12">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D13">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E13">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F13">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G13">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D14">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E14">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F14">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G14">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D15">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E15">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F15">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G15">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D16">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E16">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F16">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G16">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D17">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E17">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F17">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G17">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D18">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E18">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F18">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G18">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D19">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E19">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F19">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G19">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D20">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E20">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F20">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G20">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D21">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E21">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F21">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G21">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D22">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E22">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F22">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G22">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D23">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E23">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F23">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G23">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D24">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E24">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F24">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G24">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2161129986941148</v>
+        <v>0.2161129986944701</v>
       </c>
       <c r="D25">
-        <v>0.8254425662915992</v>
+        <v>0.8254425662917697</v>
       </c>
       <c r="E25">
-        <v>0.4334594964216976</v>
+        <v>0.4334594964217473</v>
       </c>
       <c r="F25">
-        <v>18.84503014261571</v>
+        <v>18.84503014261554</v>
       </c>
       <c r="G25">
-        <v>16.37434572268273</v>
+        <v>16.37434572268268</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7537706733314167</v>
+        <v>0.7537706733313669</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2372660904026418</v>
+        <v>0.2367093152289215</v>
       </c>
       <c r="D2">
-        <v>0.9098614405455976</v>
+        <v>0.9041032140232801</v>
       </c>
       <c r="E2">
-        <v>0.4781303140483217</v>
+        <v>0.4773625982088419</v>
       </c>
       <c r="F2">
-        <v>20.70638287195931</v>
+        <v>20.61396227783752</v>
       </c>
       <c r="G2">
-        <v>17.99634731128407</v>
+        <v>6.042474638755124</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.86005267755149</v>
       </c>
       <c r="I2">
-        <v>0.8312930268022427</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8286067585466839</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,28 +459,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1829464530661795</v>
+        <v>0.182699324151173</v>
       </c>
       <c r="D3">
-        <v>0.6946707701974617</v>
+        <v>0.6910114626225266</v>
       </c>
       <c r="E3">
-        <v>0.3644782247308243</v>
+        <v>0.3642884981091399</v>
       </c>
       <c r="F3">
-        <v>15.94172447255528</v>
+        <v>15.88682304594005</v>
       </c>
       <c r="G3">
-        <v>13.84559204680286</v>
+        <v>4.650666857899182</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.137935140886583</v>
       </c>
       <c r="I3">
-        <v>0.6339301942730913</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6325646486697991</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,28 +500,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1570362191040999</v>
+        <v>0.156872626161416</v>
       </c>
       <c r="D4">
-        <v>0.5937009309754728</v>
+        <v>0.5907646988525812</v>
       </c>
       <c r="E4">
-        <v>0.3114035226782192</v>
+        <v>0.3113444127463083</v>
       </c>
       <c r="F4">
-        <v>13.68602299289637</v>
+        <v>13.64321395090019</v>
       </c>
       <c r="G4">
-        <v>11.88174168395102</v>
+        <v>3.989836184233667</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.847406817081009</v>
       </c>
       <c r="I4">
-        <v>0.5416126767355394</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5406237877273625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,28 +541,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1474766143046509</v>
+        <v>0.1473374265656275</v>
       </c>
       <c r="D5">
-        <v>0.5566861998256911</v>
+        <v>0.5539891407489961</v>
       </c>
       <c r="E5">
-        <v>0.2919897978985233</v>
+        <v>0.2919647382751762</v>
       </c>
       <c r="F5">
-        <v>12.85652604145923</v>
+        <v>12.81759996027574</v>
       </c>
       <c r="G5">
-        <v>11.15972065453161</v>
+        <v>3.746580476738103</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.372744566764453</v>
       </c>
       <c r="I5">
-        <v>0.5078188095104395</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5069440166634749</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,28 +582,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1459360881082148</v>
+        <v>0.1458005600402572</v>
       </c>
       <c r="D6">
-        <v>0.5507326926082499</v>
+        <v>0.5480730040003152</v>
       </c>
       <c r="E6">
-        <v>0.2888695199370233</v>
+        <v>0.2888493519091284</v>
       </c>
       <c r="F6">
-        <v>12.72299357737518</v>
+        <v>12.68466861494903</v>
       </c>
       <c r="G6">
-        <v>11.04349638573802</v>
+        <v>3.707409027683298</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.296331450942091</v>
       </c>
       <c r="I6">
-        <v>0.5023859183278176</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5015284609227706</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,28 +623,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1569039060396307</v>
+        <v>0.1567406717715158</v>
       </c>
       <c r="D7">
-        <v>0.5931877714057805</v>
+        <v>0.590254939321369</v>
       </c>
       <c r="E7">
-        <v>0.311134214777546</v>
+        <v>0.3110756218051236</v>
       </c>
       <c r="F7">
-        <v>13.67453185822626</v>
+        <v>13.63177844196053</v>
       </c>
       <c r="G7">
-        <v>11.87173891597737</v>
+        <v>3.986467216324229</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.840831451459195</v>
       </c>
       <c r="I7">
-        <v>0.5411439849877766</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5401567556935234</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,28 +664,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D8">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E8">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F8">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G8">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I8">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D9">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E9">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F9">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G9">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I9">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,28 +746,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D10">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E10">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F10">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G10">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I10">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D11">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E11">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F11">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G11">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I11">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,28 +828,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D12">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E12">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F12">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G12">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I12">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,28 +869,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D13">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E13">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F13">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G13">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I13">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,28 +910,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D14">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E14">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F14">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G14">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I14">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,28 +951,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D15">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E15">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F15">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G15">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I15">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,28 +992,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D16">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E16">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F16">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G16">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I16">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,28 +1033,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D17">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E17">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F17">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G17">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I17">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,28 +1074,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D18">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E18">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F18">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G18">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I18">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,28 +1115,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D19">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E19">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F19">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G19">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I19">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,28 +1156,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D20">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E20">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F20">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G20">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I20">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D21">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E21">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F21">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G21">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I21">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D22">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E22">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F22">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G22">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I22">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,28 +1279,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D23">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E23">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F23">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G23">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I23">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,28 +1320,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D24">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E24">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F24">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G24">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I24">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2161129986944701</v>
+        <v>0.2157063796784939</v>
       </c>
       <c r="D25">
-        <v>0.8254425662917697</v>
+        <v>0.8206303128516481</v>
       </c>
       <c r="E25">
-        <v>0.4334594964217473</v>
+        <v>0.4329845129606014</v>
       </c>
       <c r="F25">
-        <v>18.84503014261554</v>
+        <v>18.76990006635515</v>
       </c>
       <c r="G25">
-        <v>16.37434572268268</v>
+        <v>5.499565143373047</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.79764714935152</v>
       </c>
       <c r="I25">
-        <v>0.7537706733313669</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7517164690312939</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.151752350025717</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.06676851311271292</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.485849376957063</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.172198386256554</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007491796429821434</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7.904390164786889</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8083747804864601</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1296405978422541</v>
+      </c>
+      <c r="D3">
+        <v>0.06152610329591823</v>
+      </c>
+      <c r="E3">
+        <v>1.257462201491052</v>
+      </c>
+      <c r="F3">
+        <v>2.769552306265837</v>
+      </c>
+      <c r="G3">
+        <v>0.0007624874506709252</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>6.754538065270822</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.843216015864563</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1164629787459148</v>
+      </c>
+      <c r="D4">
+        <v>0.0587259051160629</v>
+      </c>
+      <c r="E4">
+        <v>1.123052869482606</v>
+      </c>
+      <c r="F4">
+        <v>2.534389598179644</v>
+      </c>
+      <c r="G4">
+        <v>0.0007707446283416983</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>6.069980401332316</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.867207857635826</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1111762797289373</v>
+      </c>
+      <c r="D5">
+        <v>0.05767464335962558</v>
+      </c>
+      <c r="E5">
+        <v>1.069473503850119</v>
+      </c>
+      <c r="F5">
+        <v>2.44113912905334</v>
+      </c>
+      <c r="G5">
+        <v>0.000774137895416568</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5.795485139427115</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.8775729085889878</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1103030035803982</v>
+      </c>
+      <c r="D6">
+        <v>0.05750510342191006</v>
+      </c>
+      <c r="E6">
+        <v>1.060641701029056</v>
+      </c>
+      <c r="F6">
+        <v>2.42579878017348</v>
+      </c>
+      <c r="G6">
+        <v>0.0007747032390159951</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5.750150651886429</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.8793278120469736</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1163913640701679</v>
+      </c>
+      <c r="D7">
+        <v>0.05871138227206529</v>
+      </c>
+      <c r="E7">
+        <v>1.122325772104318</v>
+      </c>
+      <c r="F7">
+        <v>2.533122093835431</v>
+      </c>
+      <c r="G7">
+        <v>0.0007707902679801211</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6.066261501401868</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.8673453421984547</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1440343090448977</v>
+      </c>
+      <c r="D8">
+        <v>0.06486390801499198</v>
+      </c>
+      <c r="E8">
+        <v>1.405715535635153</v>
+      </c>
+      <c r="F8">
+        <v>3.030567183560805</v>
+      </c>
+      <c r="G8">
+        <v>0.0007537546877444376</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>7.502863629604064</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.819805941244411</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2023388176397276</v>
+      </c>
+      <c r="D9">
+        <v>0.08111649591393189</v>
+      </c>
+      <c r="E9">
+        <v>2.022887017815549</v>
+      </c>
+      <c r="F9">
+        <v>4.126658067568485</v>
+      </c>
+      <c r="G9">
+        <v>0.000720660842230056</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>10.54131182208926</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.7508049142298034</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.2493113302464565</v>
+      </c>
+      <c r="D10">
+        <v>0.0971932758828018</v>
+      </c>
+      <c r="E10">
+        <v>2.541942833393932</v>
+      </c>
+      <c r="F10">
+        <v>5.049763905985913</v>
+      </c>
+      <c r="G10">
+        <v>0.0006958764306221885</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>12.99953065226964</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.7213136438476937</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2720859030399225</v>
+      </c>
+      <c r="D11">
+        <v>0.1059214321835498</v>
+      </c>
+      <c r="E11">
+        <v>2.801632023606444</v>
+      </c>
+      <c r="F11">
+        <v>5.509212821614369</v>
+      </c>
+      <c r="G11">
+        <v>0.0006842904508473735</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>14.19552626734725</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.7145414500282783</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.2809709457805809</v>
+      </c>
+      <c r="D12">
+        <v>0.1094924289569121</v>
+      </c>
+      <c r="E12">
+        <v>2.904499122806115</v>
+      </c>
+      <c r="F12">
+        <v>5.69050968878031</v>
+      </c>
+      <c r="G12">
+        <v>0.0006798337651734308</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>14.66295761158653</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.7131732415662668</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2790446604717403</v>
+      </c>
+      <c r="D13">
+        <v>0.1087102915507501</v>
+      </c>
+      <c r="E13">
+        <v>2.882120674595015</v>
+      </c>
+      <c r="F13">
+        <v>5.651107109036445</v>
+      </c>
+      <c r="G13">
+        <v>0.0006807971558615613</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>14.56157604889751</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.7134099966262397</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2728112527823896</v>
+      </c>
+      <c r="D14">
+        <v>0.1062094556826878</v>
+      </c>
+      <c r="E14">
+        <v>2.809996164249327</v>
+      </c>
+      <c r="F14">
+        <v>5.523970403871289</v>
+      </c>
+      <c r="G14">
+        <v>0.0006839253560332676</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>14.23366768518554</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.7144032458805327</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.269029122485918</v>
+      </c>
+      <c r="D15">
+        <v>0.1047144661847739</v>
+      </c>
+      <c r="E15">
+        <v>2.766448484517298</v>
+      </c>
+      <c r="F15">
+        <v>5.447105299692936</v>
+      </c>
+      <c r="G15">
+        <v>0.0006858315740022701</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>14.0348251998148</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.71517592449419</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2478558752556381</v>
+      </c>
+      <c r="D16">
+        <v>0.09665620240608774</v>
+      </c>
+      <c r="E16">
+        <v>2.525534251550383</v>
+      </c>
+      <c r="F16">
+        <v>5.020661169837865</v>
+      </c>
+      <c r="G16">
+        <v>0.0006966254108153405</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>12.92319722309321</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.7219088092868873</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2352634948133243</v>
+      </c>
+      <c r="D17">
+        <v>0.09211325431049744</v>
+      </c>
+      <c r="E17">
+        <v>2.384470417485602</v>
+      </c>
+      <c r="F17">
+        <v>4.77018424482651</v>
+      </c>
+      <c r="G17">
+        <v>0.0007031521543735436</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>12.26323754722318</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.7278897786970902</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.2281487496503729</v>
+      </c>
+      <c r="D18">
+        <v>0.0896287250506731</v>
+      </c>
+      <c r="E18">
+        <v>2.305466065187929</v>
+      </c>
+      <c r="F18">
+        <v>4.629715324081701</v>
+      </c>
+      <c r="G18">
+        <v>0.0007068786841430123</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>11.89071349782671</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.7319372175977037</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2257603000485062</v>
+      </c>
+      <c r="D19">
+        <v>0.08880799123173944</v>
+      </c>
+      <c r="E19">
+        <v>2.27905412518966</v>
+      </c>
+      <c r="F19">
+        <v>4.582731213591302</v>
+      </c>
+      <c r="G19">
+        <v>0.0007081363308643277</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>11.76571102047922</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.7334057521129864</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.2365903521596948</v>
+      </c>
+      <c r="D20">
+        <v>0.09258317805940663</v>
+      </c>
+      <c r="E20">
+        <v>2.399259260923785</v>
+      </c>
+      <c r="F20">
+        <v>4.796465256210155</v>
+      </c>
+      <c r="G20">
+        <v>0.0007024603690603593</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>12.33273891241811</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7271887281125373</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.2746345192097266</v>
+      </c>
+      <c r="D21">
+        <v>0.1069361890977518</v>
+      </c>
+      <c r="E21">
+        <v>2.831046788584757</v>
+      </c>
+      <c r="F21">
+        <v>5.561099395944012</v>
+      </c>
+      <c r="G21">
+        <v>0.0006830086458920043</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>14.3295556398773</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.7140767195372888</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.3010609200835859</v>
+      </c>
+      <c r="D22">
+        <v>0.117913437223919</v>
+      </c>
+      <c r="E22">
+        <v>3.14051934169197</v>
+      </c>
+      <c r="F22">
+        <v>6.104653965544657</v>
+      </c>
+      <c r="G22">
+        <v>0.0006698736083082917</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>15.72176434085122</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.7126572134355058</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2867891148864175</v>
+      </c>
+      <c r="D23">
+        <v>0.1118815825643935</v>
+      </c>
+      <c r="E23">
+        <v>2.972353967554511</v>
+      </c>
+      <c r="F23">
+        <v>5.809847906312001</v>
+      </c>
+      <c r="G23">
+        <v>0.0006769331160172209</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>14.96931631704228</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.7126581903260103</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.2359900954382823</v>
+      </c>
+      <c r="D24">
+        <v>0.09237033349133839</v>
+      </c>
+      <c r="E24">
+        <v>2.39256677868741</v>
+      </c>
+      <c r="F24">
+        <v>4.784572719866986</v>
+      </c>
+      <c r="G24">
+        <v>0.0007027732038309637</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>12.30129610425939</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.7275037935186646</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1859800087811294</v>
+      </c>
+      <c r="D25">
+        <v>0.07613226665627337</v>
+      </c>
+      <c r="E25">
+        <v>1.846884705234231</v>
+      </c>
+      <c r="F25">
+        <v>3.813269275558326</v>
+      </c>
+      <c r="G25">
+        <v>0.0007296390833224642</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>9.68752000852777</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.766305536931327</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.151752350025717</v>
+        <v>0.04852018192242724</v>
       </c>
       <c r="D2">
-        <v>0.06676851311271292</v>
+        <v>0.0742794305384038</v>
       </c>
       <c r="E2">
-        <v>1.485849376957063</v>
+        <v>0.4081293834057362</v>
       </c>
       <c r="F2">
-        <v>3.172198386256554</v>
+        <v>2.070428378554112</v>
       </c>
       <c r="G2">
-        <v>0.0007491796429821434</v>
+        <v>0.002469632125197601</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.904390164786889</v>
+        <v>2.826795534645555</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8083747804864601</v>
+        <v>1.450725526532274</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1296405978422541</v>
+        <v>0.04307405932115671</v>
       </c>
       <c r="D3">
-        <v>0.06152610329591823</v>
+        <v>0.07382127748772405</v>
       </c>
       <c r="E3">
-        <v>1.257462201491052</v>
+        <v>0.3555628078486706</v>
       </c>
       <c r="F3">
-        <v>2.769552306265837</v>
+        <v>1.992005783248771</v>
       </c>
       <c r="G3">
-        <v>0.0007624874506709252</v>
+        <v>0.002476983160354761</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.754538065270822</v>
+        <v>2.558385867842276</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.843216015864563</v>
+        <v>1.464487360302627</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1164629787459148</v>
+        <v>0.03975388996538243</v>
       </c>
       <c r="D4">
-        <v>0.0587259051160629</v>
+        <v>0.07359787363824921</v>
       </c>
       <c r="E4">
-        <v>1.123052869482606</v>
+        <v>0.3234614006347982</v>
       </c>
       <c r="F4">
-        <v>2.534389598179644</v>
+        <v>1.945479117689104</v>
       </c>
       <c r="G4">
-        <v>0.0007707446283416983</v>
+        <v>0.002481719267104251</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.069980401332316</v>
+        <v>2.395286300217663</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.867207857635826</v>
+        <v>1.473553173869909</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1111762797289373</v>
+        <v>0.03840662373897885</v>
       </c>
       <c r="D5">
-        <v>0.05767464335962558</v>
+        <v>0.07352115166888495</v>
       </c>
       <c r="E5">
-        <v>1.069473503850119</v>
+        <v>0.3104197510123896</v>
       </c>
       <c r="F5">
-        <v>2.44113912905334</v>
+        <v>1.926921006074025</v>
       </c>
       <c r="G5">
-        <v>0.000774137895416568</v>
+        <v>0.002483705481715281</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.795485139427115</v>
+        <v>2.329238438969185</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8775729085889878</v>
+        <v>1.477401190584843</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1103030035803982</v>
+        <v>0.038183250111814</v>
       </c>
       <c r="D6">
-        <v>0.05750510342191006</v>
+        <v>0.07350926971104599</v>
       </c>
       <c r="E6">
-        <v>1.060641701029056</v>
+        <v>0.3082564916463895</v>
       </c>
       <c r="F6">
-        <v>2.42579878017348</v>
+        <v>1.923863522805121</v>
       </c>
       <c r="G6">
-        <v>0.0007747032390159951</v>
+        <v>0.002484038693626226</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.750150651886429</v>
+        <v>2.318296047713716</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8793278120469736</v>
+        <v>1.4780493925008</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1163913640701679</v>
+        <v>0.03973569738769811</v>
       </c>
       <c r="D7">
-        <v>0.05871138227206529</v>
+        <v>0.07359678128880631</v>
       </c>
       <c r="E7">
-        <v>1.122325772104318</v>
+        <v>0.3232853599192396</v>
       </c>
       <c r="F7">
-        <v>2.533122093835431</v>
+        <v>1.945227218154116</v>
       </c>
       <c r="G7">
-        <v>0.0007707902679801211</v>
+        <v>0.00248174582604473</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.066261501401868</v>
+        <v>2.394393885075488</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8673453421984547</v>
+        <v>1.473604449213234</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1440343090448977</v>
+        <v>0.04663727286046537</v>
       </c>
       <c r="D8">
-        <v>0.06486390801499198</v>
+        <v>0.07410929328617755</v>
       </c>
       <c r="E8">
-        <v>1.405715535635153</v>
+        <v>0.3899657355347728</v>
       </c>
       <c r="F8">
-        <v>3.030567183560805</v>
+        <v>2.043046838133392</v>
       </c>
       <c r="G8">
-        <v>0.0007537546877444376</v>
+        <v>0.002472120726383809</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.502863629604064</v>
+        <v>2.733886490350073</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.819805941244411</v>
+        <v>1.455341988101843</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2023388176397276</v>
+        <v>0.06037187579995873</v>
       </c>
       <c r="D9">
-        <v>0.08111649591393189</v>
+        <v>0.07558504174678404</v>
       </c>
       <c r="E9">
-        <v>2.022887017815549</v>
+        <v>0.5223003029019253</v>
       </c>
       <c r="F9">
-        <v>4.126658067568485</v>
+        <v>2.248086690183754</v>
       </c>
       <c r="G9">
-        <v>0.000720660842230056</v>
+        <v>0.002455000100162998</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.54131182208926</v>
+        <v>3.413754390215558</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7508049142298034</v>
+        <v>1.424474449044482</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2493113302464565</v>
+        <v>0.07060285499102292</v>
       </c>
       <c r="D10">
-        <v>0.0971932758828018</v>
+        <v>0.07697227822355046</v>
       </c>
       <c r="E10">
-        <v>2.541942833393932</v>
+        <v>0.6207600841152896</v>
       </c>
       <c r="F10">
-        <v>5.049763905985913</v>
+        <v>2.407254518286237</v>
       </c>
       <c r="G10">
-        <v>0.0006958764306221885</v>
+        <v>0.002443474607471804</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.99953065226964</v>
+        <v>3.922752523794031</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7213136438476937</v>
+        <v>1.40489052696141</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2720859030399225</v>
+        <v>0.07529164452851944</v>
       </c>
       <c r="D11">
-        <v>0.1059214321835498</v>
+        <v>0.07767274420836401</v>
       </c>
       <c r="E11">
-        <v>2.801632023606444</v>
+        <v>0.6658811895365631</v>
       </c>
       <c r="F11">
-        <v>5.509212821614369</v>
+        <v>2.48162009745505</v>
       </c>
       <c r="G11">
-        <v>0.0006842904508473735</v>
+        <v>0.002438456480370132</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.19552626734725</v>
+        <v>4.156572494594798</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7145414500282783</v>
+        <v>1.396670896153537</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2809709457805809</v>
+        <v>0.0770724678877599</v>
       </c>
       <c r="D12">
-        <v>0.1094924289569121</v>
+        <v>0.07794827192910958</v>
       </c>
       <c r="E12">
-        <v>2.904499122806115</v>
+        <v>0.6830199951503317</v>
       </c>
       <c r="F12">
-        <v>5.69050968878031</v>
+        <v>2.510070613798121</v>
       </c>
       <c r="G12">
-        <v>0.0006798337651734308</v>
+        <v>0.002436588306561152</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.66295761158653</v>
+        <v>4.245456892911591</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7131732415662668</v>
+        <v>1.3936589597741</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2790446604717403</v>
+        <v>0.07668869607661577</v>
       </c>
       <c r="D13">
-        <v>0.1087102915507501</v>
+        <v>0.07788847026142776</v>
       </c>
       <c r="E13">
-        <v>2.882120674595015</v>
+        <v>0.6793264376459973</v>
       </c>
       <c r="F13">
-        <v>5.651107109036445</v>
+        <v>2.503930261650595</v>
       </c>
       <c r="G13">
-        <v>0.0006807971558615613</v>
+        <v>0.002436989228421672</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.56157604889751</v>
+        <v>4.226298602960242</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7134099966262397</v>
+        <v>1.394303132176447</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2728112527823896</v>
+        <v>0.07543804638781637</v>
       </c>
       <c r="D14">
-        <v>0.1062094556826878</v>
+        <v>0.07769520436099242</v>
       </c>
       <c r="E14">
-        <v>2.809996164249327</v>
+        <v>0.6672901308847088</v>
       </c>
       <c r="F14">
-        <v>5.523970403871289</v>
+        <v>2.483954881519225</v>
       </c>
       <c r="G14">
-        <v>0.0006839253560332676</v>
+        <v>0.00243830214304383</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.23366768518554</v>
+        <v>4.163878129926843</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7144032458805327</v>
+        <v>1.396421075950073</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.269029122485918</v>
+        <v>0.07467268392512949</v>
       </c>
       <c r="D15">
-        <v>0.1047144661847739</v>
+        <v>0.07757817062989147</v>
       </c>
       <c r="E15">
-        <v>2.766448484517298</v>
+        <v>0.6599245166610075</v>
       </c>
       <c r="F15">
-        <v>5.447105299692936</v>
+        <v>2.471757380873328</v>
       </c>
       <c r="G15">
-        <v>0.0006858315740022701</v>
+        <v>0.002439110511627215</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.0348251998148</v>
+        <v>4.125688754017006</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.71517592449419</v>
+        <v>1.397731533193181</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2478558752556381</v>
+        <v>0.07029715423399807</v>
       </c>
       <c r="D16">
-        <v>0.09665620240608774</v>
+        <v>0.07692792287236472</v>
       </c>
       <c r="E16">
-        <v>2.525534251550383</v>
+        <v>0.6178183859166211</v>
       </c>
       <c r="F16">
-        <v>5.020661169837865</v>
+        <v>2.402434670593664</v>
       </c>
       <c r="G16">
-        <v>0.0006966254108153405</v>
+        <v>0.002443807057141978</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.92319722309321</v>
+        <v>3.907518858885737</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7219088092868873</v>
+        <v>1.405441699583633</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2352634948133243</v>
+        <v>0.06762199523181778</v>
       </c>
       <c r="D17">
-        <v>0.09211325431049744</v>
+        <v>0.07654700157862493</v>
       </c>
       <c r="E17">
-        <v>2.384470417485602</v>
+        <v>0.5920758485311381</v>
       </c>
       <c r="F17">
-        <v>4.77018424482651</v>
+        <v>2.360414992707859</v>
       </c>
       <c r="G17">
-        <v>0.0007031521543735436</v>
+        <v>0.002446745651128667</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.26323754722318</v>
+        <v>3.774271582707854</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7278897786970902</v>
+        <v>1.410349251062286</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2281487496503729</v>
+        <v>0.06608655930769203</v>
       </c>
       <c r="D18">
-        <v>0.0896287250506731</v>
+        <v>0.07633442031352899</v>
       </c>
       <c r="E18">
-        <v>2.305466065187929</v>
+        <v>0.577300307465805</v>
       </c>
       <c r="F18">
-        <v>4.629715324081701</v>
+        <v>2.336430309049689</v>
       </c>
       <c r="G18">
-        <v>0.0007068786841430123</v>
+        <v>0.002448457034642821</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.89071349782671</v>
+        <v>3.697844417239878</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7319372175977037</v>
+        <v>1.413236720080249</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2257603000485062</v>
+        <v>0.06556723549685728</v>
       </c>
       <c r="D19">
-        <v>0.08880799123173944</v>
+        <v>0.07626355393507112</v>
       </c>
       <c r="E19">
-        <v>2.27905412518966</v>
+        <v>0.5723027239675673</v>
       </c>
       <c r="F19">
-        <v>4.582731213591302</v>
+        <v>2.328340851629633</v>
       </c>
       <c r="G19">
-        <v>0.0007081363308643277</v>
+        <v>0.002449040125349653</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.76571102047922</v>
+        <v>3.672003654819093</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7334057521129864</v>
+        <v>1.414225445844707</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2365903521596948</v>
+        <v>0.06790643253522433</v>
       </c>
       <c r="D20">
-        <v>0.09258317805940663</v>
+        <v>0.07658687494418359</v>
       </c>
       <c r="E20">
-        <v>2.399259260923785</v>
+        <v>0.5948129547576713</v>
       </c>
       <c r="F20">
-        <v>4.796465256210155</v>
+        <v>2.364868965449801</v>
       </c>
       <c r="G20">
-        <v>0.0007024603690603593</v>
+        <v>0.002446430642321249</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.33273891241811</v>
+        <v>3.788433817096802</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7271887281125373</v>
+        <v>1.409820118695293</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2746345192097266</v>
+        <v>0.07580524681324619</v>
       </c>
       <c r="D21">
-        <v>0.1069361890977518</v>
+        <v>0.07775168994299975</v>
       </c>
       <c r="E21">
-        <v>2.831046788584757</v>
+        <v>0.6708240244372234</v>
       </c>
       <c r="F21">
-        <v>5.561099395944012</v>
+        <v>2.489814201644066</v>
       </c>
       <c r="G21">
-        <v>0.0006830086458920043</v>
+        <v>0.00243791563935981</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.3295556398773</v>
+        <v>4.182203137997078</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7140767195372888</v>
+        <v>1.395796240096217</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3010609200835859</v>
+        <v>0.08099850008967735</v>
       </c>
       <c r="D22">
-        <v>0.117913437223919</v>
+        <v>0.07857300574207216</v>
       </c>
       <c r="E22">
-        <v>3.14051934169197</v>
+        <v>0.7208095233301464</v>
       </c>
       <c r="F22">
-        <v>6.104653965544657</v>
+        <v>2.573166728725226</v>
       </c>
       <c r="G22">
-        <v>0.0006698736083082917</v>
+        <v>0.002432537472050027</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.72176434085122</v>
+        <v>4.441553898160691</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7126572134355058</v>
+        <v>1.387218290669026</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2867891148864175</v>
+        <v>0.07822383411482292</v>
       </c>
       <c r="D23">
-        <v>0.1118815825643935</v>
+        <v>0.0781290604119107</v>
       </c>
       <c r="E23">
-        <v>2.972353967554511</v>
+        <v>0.6941015363787528</v>
       </c>
       <c r="F23">
-        <v>5.809847906312001</v>
+        <v>2.52852221259468</v>
       </c>
       <c r="G23">
-        <v>0.0006769331160172209</v>
+        <v>0.002435390886433852</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.96931631704228</v>
+        <v>4.302945530771126</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7126581903260103</v>
+        <v>1.391742228033706</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2359900954382823</v>
+        <v>0.06777783051421693</v>
       </c>
       <c r="D24">
-        <v>0.09237033349133839</v>
+        <v>0.07656882823424382</v>
       </c>
       <c r="E24">
-        <v>2.39256677868741</v>
+        <v>0.5935754340574135</v>
       </c>
       <c r="F24">
-        <v>4.784572719866986</v>
+        <v>2.362854786164348</v>
       </c>
       <c r="G24">
-        <v>0.0007027732038309637</v>
+        <v>0.002446572989452647</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.30129610425939</v>
+        <v>3.782030516155601</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7275037935186646</v>
+        <v>1.41005913381764</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1859800087811294</v>
+        <v>0.05663300098022717</v>
       </c>
       <c r="D25">
-        <v>0.07613226665627337</v>
+        <v>0.07513378476795651</v>
       </c>
       <c r="E25">
-        <v>1.846884705234231</v>
+        <v>0.4863038347856303</v>
       </c>
       <c r="F25">
-        <v>3.813269275558326</v>
+        <v>2.191155348378516</v>
       </c>
       <c r="G25">
-        <v>0.0007296390833224642</v>
+        <v>0.002459445574413386</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.68752000852777</v>
+        <v>3.228229505487263</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.766305536931327</v>
+        <v>1.432287391133087</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04852018192242724</v>
+        <v>0.1517523500261859</v>
       </c>
       <c r="D2">
-        <v>0.0742794305384038</v>
+        <v>0.06676851311271292</v>
       </c>
       <c r="E2">
-        <v>0.4081293834057362</v>
+        <v>1.485849376957063</v>
       </c>
       <c r="F2">
-        <v>2.070428378554112</v>
+        <v>3.172198386256554</v>
       </c>
       <c r="G2">
-        <v>0.002469632125197601</v>
+        <v>0.0007491796429175796</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.826795534645555</v>
+        <v>7.904390164786832</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.450725526532274</v>
+        <v>0.8083747804864032</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04307405932115671</v>
+        <v>0.1296405978419983</v>
       </c>
       <c r="D3">
-        <v>0.07382127748772405</v>
+        <v>0.06152610329591823</v>
       </c>
       <c r="E3">
-        <v>0.3555628078486706</v>
+        <v>1.257462201491052</v>
       </c>
       <c r="F3">
-        <v>1.992005783248771</v>
+        <v>2.769552306265837</v>
       </c>
       <c r="G3">
-        <v>0.002476983160354761</v>
+        <v>0.0007624874507331499</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.558385867842276</v>
+        <v>6.754538065270879</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.464487360302627</v>
+        <v>0.8432160158645132</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03975388996538243</v>
+        <v>0.1164629787457301</v>
       </c>
       <c r="D4">
-        <v>0.07359787363824921</v>
+        <v>0.0587259051161837</v>
       </c>
       <c r="E4">
-        <v>0.3234614006347982</v>
+        <v>1.123052869482578</v>
       </c>
       <c r="F4">
-        <v>1.945479117689104</v>
+        <v>2.534389598179644</v>
       </c>
       <c r="G4">
-        <v>0.002481719267104251</v>
+        <v>0.0007707446283415873</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.395286300217663</v>
+        <v>6.06998040133243</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.473553173869909</v>
+        <v>0.8672078576358331</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03840662373897885</v>
+        <v>0.1111762797291362</v>
       </c>
       <c r="D5">
-        <v>0.07352115166888495</v>
+        <v>0.05767464335962558</v>
       </c>
       <c r="E5">
-        <v>0.3104197510123896</v>
+        <v>1.069473503850205</v>
       </c>
       <c r="F5">
-        <v>1.926921006074025</v>
+        <v>2.44113912905334</v>
       </c>
       <c r="G5">
-        <v>0.002483705481715281</v>
+        <v>0.0007741378954165682</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.329238438969185</v>
+        <v>5.795485139427115</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.477401190584843</v>
+        <v>0.8775729085890518</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.038183250111814</v>
+        <v>0.1103030035808672</v>
       </c>
       <c r="D6">
-        <v>0.07350926971104599</v>
+        <v>0.05750510342203086</v>
       </c>
       <c r="E6">
-        <v>0.3082564916463895</v>
+        <v>1.060641701029084</v>
       </c>
       <c r="F6">
-        <v>1.923863522805121</v>
+        <v>2.425798780173508</v>
       </c>
       <c r="G6">
-        <v>0.002484038693626226</v>
+        <v>0.0007747032390758024</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.318296047713716</v>
+        <v>5.750150651886429</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.4780493925008</v>
+        <v>0.8793278120469665</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03973569738769811</v>
+        <v>0.1163913640699406</v>
       </c>
       <c r="D7">
-        <v>0.07359678128880631</v>
+        <v>0.05871138227229977</v>
       </c>
       <c r="E7">
-        <v>0.3232853599192396</v>
+        <v>1.122325772104304</v>
       </c>
       <c r="F7">
-        <v>1.945227218154116</v>
+        <v>2.533122093835402</v>
       </c>
       <c r="G7">
-        <v>0.00248174582604473</v>
+        <v>0.0007707902679789929</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.394393885075488</v>
+        <v>6.066261501401925</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.473604449213234</v>
+        <v>0.8673453421984618</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04663727286046537</v>
+        <v>0.1440343090446419</v>
       </c>
       <c r="D8">
-        <v>0.07410929328617755</v>
+        <v>0.06486390801535435</v>
       </c>
       <c r="E8">
-        <v>0.3899657355347728</v>
+        <v>1.405715535635181</v>
       </c>
       <c r="F8">
-        <v>2.043046838133392</v>
+        <v>3.030567183560805</v>
       </c>
       <c r="G8">
-        <v>0.002472120726383809</v>
+        <v>0.0007537546878747416</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.733886490350073</v>
+        <v>7.502863629604064</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.455341988101843</v>
+        <v>0.819805941244411</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06037187579995873</v>
+        <v>0.2023388176395002</v>
       </c>
       <c r="D9">
-        <v>0.07558504174678404</v>
+        <v>0.08111649591405978</v>
       </c>
       <c r="E9">
-        <v>0.5223003029019253</v>
+        <v>2.02288701781562</v>
       </c>
       <c r="F9">
-        <v>2.248086690183754</v>
+        <v>4.126658067568513</v>
       </c>
       <c r="G9">
-        <v>0.002455000100162998</v>
+        <v>0.0007206608422292149</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.413754390215558</v>
+        <v>10.54131182208931</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.424474449044482</v>
+        <v>0.7508049142298034</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07060285499102292</v>
+        <v>0.2493113302464565</v>
       </c>
       <c r="D10">
-        <v>0.07697227822355046</v>
+        <v>0.09719327588295812</v>
       </c>
       <c r="E10">
-        <v>0.6207600841152896</v>
+        <v>2.541942833394032</v>
       </c>
       <c r="F10">
-        <v>2.407254518286237</v>
+        <v>5.049763905985913</v>
       </c>
       <c r="G10">
-        <v>0.002443474607471804</v>
+        <v>0.000695876430726886</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.922752523794031</v>
+        <v>12.9995306522697</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.40489052696141</v>
+        <v>0.7213136438476937</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07529164452851944</v>
+        <v>0.2720859030402778</v>
       </c>
       <c r="D11">
-        <v>0.07767274420836401</v>
+        <v>0.1059214321833366</v>
       </c>
       <c r="E11">
-        <v>0.6658811895365631</v>
+        <v>2.801632023606459</v>
       </c>
       <c r="F11">
-        <v>2.48162009745505</v>
+        <v>5.509212821614398</v>
       </c>
       <c r="G11">
-        <v>0.002438456480370132</v>
+        <v>0.0006842904509810443</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.156572494594798</v>
+        <v>14.19552626734719</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.396670896153537</v>
+        <v>0.7145414500283209</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0770724678877599</v>
+        <v>0.2809709457804246</v>
       </c>
       <c r="D12">
-        <v>0.07794827192910958</v>
+        <v>0.1094924289567132</v>
       </c>
       <c r="E12">
-        <v>0.6830199951503317</v>
+        <v>2.904499122806158</v>
       </c>
       <c r="F12">
-        <v>2.510070613798121</v>
+        <v>5.690509688780338</v>
       </c>
       <c r="G12">
-        <v>0.002436588306561152</v>
+        <v>0.0006798337650885442</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.245456892911591</v>
+        <v>14.66295761158636</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.3936589597741</v>
+        <v>0.7131732415662668</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07668869607661577</v>
+        <v>0.2790446604722945</v>
       </c>
       <c r="D13">
-        <v>0.07788847026142776</v>
+        <v>0.1087102915504232</v>
       </c>
       <c r="E13">
-        <v>0.6793264376459973</v>
+        <v>2.882120674594944</v>
       </c>
       <c r="F13">
-        <v>2.503930261650595</v>
+        <v>5.651107109036417</v>
       </c>
       <c r="G13">
-        <v>0.002436989228421672</v>
+        <v>0.0006807971558326955</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.226298602960242</v>
+        <v>14.56157604889756</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.394303132176447</v>
+        <v>0.7134099966261971</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07543804638781637</v>
+        <v>0.2728112527832565</v>
       </c>
       <c r="D14">
-        <v>0.07769520436099242</v>
+        <v>0.1062094556826878</v>
       </c>
       <c r="E14">
-        <v>0.6672901308847088</v>
+        <v>2.809996164249284</v>
       </c>
       <c r="F14">
-        <v>2.483954881519225</v>
+        <v>5.52397040387126</v>
       </c>
       <c r="G14">
-        <v>0.00243830214304383</v>
+        <v>0.0006839253559817876</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.163878129926843</v>
+        <v>14.23366768518554</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.396421075950073</v>
+        <v>0.7144032458805327</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07467268392512949</v>
+        <v>0.2690291224858044</v>
       </c>
       <c r="D15">
-        <v>0.07757817062989147</v>
+        <v>0.1047144661846175</v>
       </c>
       <c r="E15">
-        <v>0.6599245166610075</v>
+        <v>2.766448484517255</v>
       </c>
       <c r="F15">
-        <v>2.471757380873328</v>
+        <v>5.447105299692907</v>
       </c>
       <c r="G15">
-        <v>0.002439110511627215</v>
+        <v>0.000685831574085204</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.125688754017006</v>
+        <v>14.03482519981463</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.397731533193181</v>
+        <v>0.7151759244941758</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07029715423399807</v>
+        <v>0.2478558752556381</v>
       </c>
       <c r="D16">
-        <v>0.07692792287236472</v>
+        <v>0.0966562024062867</v>
       </c>
       <c r="E16">
-        <v>0.6178183859166211</v>
+        <v>2.525534251550397</v>
       </c>
       <c r="F16">
-        <v>2.402434670593664</v>
+        <v>5.020661169837865</v>
       </c>
       <c r="G16">
-        <v>0.002443807057141978</v>
+        <v>0.0006966254108142737</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.907518858885737</v>
+        <v>12.92319722309333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.405441699583633</v>
+        <v>0.7219088092869583</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06762199523181778</v>
+        <v>0.2352634948130969</v>
       </c>
       <c r="D17">
-        <v>0.07654700157862493</v>
+        <v>0.09211325431071771</v>
       </c>
       <c r="E17">
-        <v>0.5920758485311381</v>
+        <v>2.384470417485559</v>
       </c>
       <c r="F17">
-        <v>2.360414992707859</v>
+        <v>4.77018424482651</v>
       </c>
       <c r="G17">
-        <v>0.002446745651128667</v>
+        <v>0.0007031521543733614</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.774271582707854</v>
+        <v>12.26323754722318</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.410349251062286</v>
+        <v>0.7278897786971612</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06608655930769203</v>
+        <v>0.2281487496506571</v>
       </c>
       <c r="D18">
-        <v>0.07633442031352899</v>
+        <v>0.08962872505088626</v>
       </c>
       <c r="E18">
-        <v>0.577300307465805</v>
+        <v>2.305466065187971</v>
       </c>
       <c r="F18">
-        <v>2.336430309049689</v>
+        <v>4.629715324081729</v>
       </c>
       <c r="G18">
-        <v>0.002448457034642821</v>
+        <v>0.0007068786840091581</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.697844417239878</v>
+        <v>11.89071349782682</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.413236720080249</v>
+        <v>0.7319372175977037</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06556723549685728</v>
+        <v>0.2257603000491173</v>
       </c>
       <c r="D19">
-        <v>0.07626355393507112</v>
+        <v>0.08880799123214445</v>
       </c>
       <c r="E19">
-        <v>0.5723027239675673</v>
+        <v>2.279054125189703</v>
       </c>
       <c r="F19">
-        <v>2.328340851629633</v>
+        <v>4.582731213591359</v>
       </c>
       <c r="G19">
-        <v>0.002449040125349653</v>
+        <v>0.000708136330805619</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.672003654819093</v>
+        <v>11.76571102047933</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.414225445844707</v>
+        <v>0.7334057521129722</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06790643253522433</v>
+        <v>0.2365903521596664</v>
       </c>
       <c r="D20">
-        <v>0.07658687494418359</v>
+        <v>0.09258317805998928</v>
       </c>
       <c r="E20">
-        <v>0.5948129547576713</v>
+        <v>2.399259260923841</v>
       </c>
       <c r="F20">
-        <v>2.364868965449801</v>
+        <v>4.796465256210155</v>
       </c>
       <c r="G20">
-        <v>0.002446430642321249</v>
+        <v>0.0007024603689806952</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.788433817096802</v>
+        <v>12.33273891241834</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.409820118695293</v>
+        <v>0.7271887281124663</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07580524681324619</v>
+        <v>0.2746345192095134</v>
       </c>
       <c r="D21">
-        <v>0.07775168994299975</v>
+        <v>0.1069361890975955</v>
       </c>
       <c r="E21">
-        <v>0.6708240244372234</v>
+        <v>2.831046788584743</v>
       </c>
       <c r="F21">
-        <v>2.489814201644066</v>
+        <v>5.561099395944069</v>
       </c>
       <c r="G21">
-        <v>0.00243791563935981</v>
+        <v>0.0006830086458079412</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.182203137997078</v>
+        <v>14.3295556398773</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.395796240096217</v>
+        <v>0.7140767195373314</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08099850008967735</v>
+        <v>0.3010609200834296</v>
       </c>
       <c r="D22">
-        <v>0.07857300574207216</v>
+        <v>0.1179134372238622</v>
       </c>
       <c r="E22">
-        <v>0.7208095233301464</v>
+        <v>3.14051934169207</v>
       </c>
       <c r="F22">
-        <v>2.573166728725226</v>
+        <v>6.104653965544742</v>
       </c>
       <c r="G22">
-        <v>0.002432537472050027</v>
+        <v>0.0006698736084370544</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.441553898160691</v>
+        <v>15.72176434085156</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.387218290669026</v>
+        <v>0.7126572134354348</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07822383411482292</v>
+        <v>0.2867891148864032</v>
       </c>
       <c r="D23">
-        <v>0.0781290604119107</v>
+        <v>0.1118815825645925</v>
       </c>
       <c r="E23">
-        <v>0.6941015363787528</v>
+        <v>2.972353967554525</v>
       </c>
       <c r="F23">
-        <v>2.52852221259468</v>
+        <v>5.809847906312058</v>
       </c>
       <c r="G23">
-        <v>0.002435390886433852</v>
+        <v>0.0006769331160441306</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.302945530771126</v>
+        <v>14.96931631704217</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.391742228033706</v>
+        <v>0.7126581903260529</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06777783051421693</v>
+        <v>0.2359900954380976</v>
       </c>
       <c r="D24">
-        <v>0.07656882823424382</v>
+        <v>0.0923703334913526</v>
       </c>
       <c r="E24">
-        <v>0.5935754340574135</v>
+        <v>2.39256677868741</v>
       </c>
       <c r="F24">
-        <v>2.362854786164348</v>
+        <v>4.784572719866929</v>
       </c>
       <c r="G24">
-        <v>0.002446572989452647</v>
+        <v>0.0007027732038338414</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.782030516155601</v>
+        <v>12.30129610425939</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.41005913381764</v>
+        <v>0.7275037935187072</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05663300098022717</v>
+        <v>0.1859800087811436</v>
       </c>
       <c r="D25">
-        <v>0.07513378476795651</v>
+        <v>0.07613226665629469</v>
       </c>
       <c r="E25">
-        <v>0.4863038347856303</v>
+        <v>1.846884705234217</v>
       </c>
       <c r="F25">
-        <v>2.191155348378516</v>
+        <v>3.813269275558326</v>
       </c>
       <c r="G25">
-        <v>0.002459445574413386</v>
+        <v>0.0007296390833789929</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.228229505487263</v>
+        <v>9.68752000852777</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.432287391133087</v>
+        <v>0.766305536931398</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1517523500261859</v>
+        <v>0.08182454940111406</v>
       </c>
       <c r="D2">
-        <v>0.06676851311271292</v>
+        <v>0.02533328930336154</v>
       </c>
       <c r="E2">
-        <v>1.485849376957063</v>
+        <v>0.0663980685109884</v>
       </c>
       <c r="F2">
-        <v>3.172198386256554</v>
+        <v>4.387470551542748</v>
       </c>
       <c r="G2">
-        <v>0.0007491796429175796</v>
+        <v>4.456859884884494</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0005998645117561985</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004284221002011979</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.386376533931298</v>
       </c>
       <c r="K2">
-        <v>7.904390164786832</v>
+        <v>3.294305411816055</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.19664500463292</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8083747804864032</v>
+        <v>0.1104819400747417</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1296405978419983</v>
+        <v>0.07262598916319618</v>
       </c>
       <c r="D3">
-        <v>0.06152610329591823</v>
+        <v>0.02320158394434912</v>
       </c>
       <c r="E3">
-        <v>1.257462201491052</v>
+        <v>0.06038726921553383</v>
       </c>
       <c r="F3">
-        <v>2.769552306265837</v>
+        <v>3.908655432146588</v>
       </c>
       <c r="G3">
-        <v>0.0007624874507331499</v>
+        <v>3.94190605893337</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.026511956720327E-06</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001367502881608029</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.140171505158037</v>
       </c>
       <c r="K3">
-        <v>6.754538065270879</v>
+        <v>2.932511442898118</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.17536005254874</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8432160158645132</v>
+        <v>0.1006048473441084</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1164629787457301</v>
+        <v>0.06710514387947253</v>
       </c>
       <c r="D4">
-        <v>0.0587259051161837</v>
+        <v>0.02189533333412186</v>
       </c>
       <c r="E4">
-        <v>1.123052869482578</v>
+        <v>0.05671728981401181</v>
       </c>
       <c r="F4">
-        <v>2.534389598179644</v>
+        <v>3.616124432979035</v>
       </c>
       <c r="G4">
-        <v>0.0007707446283415873</v>
+        <v>3.627178227483341</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0003914574179892938</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0005500893827941056</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.98977070212149</v>
       </c>
       <c r="K4">
-        <v>6.06998040133243</v>
+        <v>2.71105066534848</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1623285517425757</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8672078576358331</v>
+        <v>0.09460967124432074</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1111762797291362</v>
+        <v>0.06481207330397698</v>
       </c>
       <c r="D5">
-        <v>0.05767464335962558</v>
+        <v>0.0213336053073121</v>
       </c>
       <c r="E5">
-        <v>1.069473503850205</v>
+        <v>0.05519880670640021</v>
       </c>
       <c r="F5">
-        <v>2.44113912905334</v>
+        <v>3.494154860117618</v>
       </c>
       <c r="G5">
-        <v>0.0007741378954165682</v>
+        <v>3.495802225928003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0007268371765025705</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005077673943594263</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.926945410768525</v>
       </c>
       <c r="K5">
-        <v>5.795485139427115</v>
+        <v>2.618049221516642</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1568615861966052</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8775729085890518</v>
+        <v>0.09227655306438365</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1103030035808672</v>
+        <v>0.06435065232030013</v>
       </c>
       <c r="D6">
-        <v>0.05750510342203086</v>
+        <v>0.02120447221309263</v>
       </c>
       <c r="E6">
-        <v>1.060641701029084</v>
+        <v>0.05491539818989111</v>
       </c>
       <c r="F6">
-        <v>2.425798780173508</v>
+        <v>3.47019647077849</v>
       </c>
       <c r="G6">
-        <v>0.0007747032390758024</v>
+        <v>3.469850043450606</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0007977043640736703</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006000912837516026</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.91446055374783</v>
       </c>
       <c r="K6">
-        <v>5.750150651886429</v>
+        <v>2.599108767602388</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1557587486470524</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8793278120469665</v>
+        <v>0.09200712469495897</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1163913640699406</v>
+        <v>0.06684695509119987</v>
       </c>
       <c r="D7">
-        <v>0.05871138227229977</v>
+        <v>0.02178897181589434</v>
       </c>
       <c r="E7">
-        <v>1.122325772104304</v>
+        <v>0.05661060195063605</v>
       </c>
       <c r="F7">
-        <v>2.533122093835402</v>
+        <v>3.604272530592567</v>
       </c>
       <c r="G7">
-        <v>0.0007707902679789929</v>
+        <v>3.614013741877841</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0004045022511784957</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007598796419010512</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.983270836917455</v>
       </c>
       <c r="K7">
-        <v>6.066261501401925</v>
+        <v>2.700185688863343</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1617188792595456</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8673453421984618</v>
+        <v>0.09489884354908895</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1440343090446419</v>
+        <v>0.07831094645911207</v>
       </c>
       <c r="D8">
-        <v>0.06486390801535435</v>
+        <v>0.02446311662895084</v>
       </c>
       <c r="E8">
-        <v>1.405715535635181</v>
+        <v>0.06420290298384579</v>
       </c>
       <c r="F8">
-        <v>3.030567183560805</v>
+        <v>4.208302791513489</v>
       </c>
       <c r="G8">
-        <v>0.0007537546878747416</v>
+        <v>4.263625513450421</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002227956972307155</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003274654776951991</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.293707953121014</v>
       </c>
       <c r="K8">
-        <v>7.502863629604064</v>
+        <v>3.156465596380698</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1885703372095264</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.819805941244411</v>
+        <v>0.1074883659507151</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2023388176395002</v>
+        <v>0.1025916069075183</v>
       </c>
       <c r="D9">
-        <v>0.08111649591405978</v>
+        <v>0.02994765108857322</v>
       </c>
       <c r="E9">
-        <v>2.02288701781562</v>
+        <v>0.07953718864648884</v>
       </c>
       <c r="F9">
-        <v>4.126658067568513</v>
+        <v>5.427440446364528</v>
       </c>
       <c r="G9">
-        <v>0.0007206608422292149</v>
+        <v>5.574604782314225</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00648985028861282</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0165977778892179</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.921142309375909</v>
       </c>
       <c r="K9">
-        <v>10.54131182208931</v>
+        <v>4.077311460301075</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2428270310990612</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7508049142298034</v>
+        <v>0.1322927795473277</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2493113302464565</v>
+        <v>0.120984446021497</v>
       </c>
       <c r="D10">
-        <v>0.09719327588295812</v>
+        <v>0.03439501328900718</v>
       </c>
       <c r="E10">
-        <v>2.541942833394032</v>
+        <v>0.08897758871863282</v>
       </c>
       <c r="F10">
-        <v>5.049763905985913</v>
+        <v>6.27569081957094</v>
       </c>
       <c r="G10">
-        <v>0.000695876430726886</v>
+        <v>6.490820034371836</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0158007362320074</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.03256201154284888</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.35903941631625</v>
       </c>
       <c r="K10">
-        <v>12.9995306522697</v>
+        <v>4.715189259244397</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2756108215026956</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7213136438476937</v>
+        <v>0.1459676825816203</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2720859030402778</v>
+        <v>0.123545341605281</v>
       </c>
       <c r="D11">
-        <v>0.1059214321833366</v>
+        <v>0.03976075222946562</v>
       </c>
       <c r="E11">
-        <v>2.801632023606459</v>
+        <v>0.07664962729184843</v>
       </c>
       <c r="F11">
-        <v>5.509212821614398</v>
+        <v>6.138711620542466</v>
       </c>
       <c r="G11">
-        <v>0.0006842904509810443</v>
+        <v>6.386144671176851</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03547424256118603</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03682664814838432</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.300995219254276</v>
       </c>
       <c r="K11">
-        <v>14.19552626734719</v>
+        <v>4.612067358102735</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2283209902386716</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7145414500283209</v>
+        <v>0.1112841967495228</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2809709457804246</v>
+        <v>0.1226235956058925</v>
       </c>
       <c r="D12">
-        <v>0.1094924289567132</v>
+        <v>0.04382758375016493</v>
       </c>
       <c r="E12">
-        <v>2.904499122806158</v>
+        <v>0.06711952714825298</v>
       </c>
       <c r="F12">
-        <v>5.690509688780338</v>
+        <v>5.858927981788327</v>
       </c>
       <c r="G12">
-        <v>0.0006798337650885442</v>
+        <v>6.120576381604906</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07336288304920657</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03644790180061985</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.167309177470258</v>
       </c>
       <c r="K12">
-        <v>14.66295761158636</v>
+        <v>4.405052161319134</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1889842008045122</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7131732415662668</v>
+        <v>0.08561144698972711</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2790446604722945</v>
+        <v>0.1185789032963385</v>
       </c>
       <c r="D13">
-        <v>0.1087102915504232</v>
+        <v>0.04688550119868751</v>
       </c>
       <c r="E13">
-        <v>2.882120674594944</v>
+        <v>0.05910801724784864</v>
       </c>
       <c r="F13">
-        <v>5.651107109036417</v>
+        <v>5.439243399959253</v>
       </c>
       <c r="G13">
-        <v>0.0006807971558326955</v>
+        <v>5.69991557804957</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1267818791455966</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03263522029383115</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.959732078788704</v>
       </c>
       <c r="K13">
-        <v>14.56157604889756</v>
+        <v>4.092634540760542</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1530218594443546</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7134099966261971</v>
+        <v>0.06606419965568833</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2728112527832565</v>
+        <v>0.1144813465556709</v>
       </c>
       <c r="D14">
-        <v>0.1062094556826878</v>
+        <v>0.04853239490238792</v>
       </c>
       <c r="E14">
-        <v>2.809996164249284</v>
+        <v>0.0546078168027595</v>
       </c>
       <c r="F14">
-        <v>5.52397040387126</v>
+        <v>5.08323939442954</v>
       </c>
       <c r="G14">
-        <v>0.0006839253559817876</v>
+        <v>5.335953054213974</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1739852057254581</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02872472513066171</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.781243915702419</v>
       </c>
       <c r="K14">
-        <v>14.23366768518554</v>
+        <v>3.826491009278584</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1305207392972996</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7144032458805327</v>
+        <v>0.05624165135769843</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2690291224858044</v>
+        <v>0.1127721992980923</v>
       </c>
       <c r="D15">
-        <v>0.1047144661846175</v>
+        <v>0.04860788553493478</v>
       </c>
       <c r="E15">
-        <v>2.766448484517255</v>
+        <v>0.0534791074592702</v>
       </c>
       <c r="F15">
-        <v>5.447105299692907</v>
+        <v>4.964193764518257</v>
       </c>
       <c r="G15">
-        <v>0.000685831574085204</v>
+        <v>5.211344998243362</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1856188285667173</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.027195880843915</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.720603773170637</v>
       </c>
       <c r="K15">
-        <v>14.03482519981463</v>
+        <v>3.73656558540614</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1248806003173755</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7151759244941758</v>
+        <v>0.05427750208416882</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2478558752556381</v>
+        <v>0.1056907598023393</v>
       </c>
       <c r="D16">
-        <v>0.0966562024062867</v>
+        <v>0.04579876184330089</v>
       </c>
       <c r="E16">
-        <v>2.525534251550397</v>
+        <v>0.05134953527397013</v>
       </c>
       <c r="F16">
-        <v>5.020661169837865</v>
+        <v>4.691345188140389</v>
       </c>
       <c r="G16">
-        <v>0.0006966254108142737</v>
+        <v>4.908617355063654</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1694141810151422</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02122388945793752</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.577050621330898</v>
       </c>
       <c r="K16">
-        <v>12.92319722309333</v>
+        <v>3.529896780680829</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1195292937687249</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7219088092869583</v>
+        <v>0.05326270216427886</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2352634948130969</v>
+        <v>0.1023456312620405</v>
       </c>
       <c r="D17">
-        <v>0.09211325431071771</v>
+        <v>0.04278648095490922</v>
       </c>
       <c r="E17">
-        <v>2.384470417485559</v>
+        <v>0.05179364923256635</v>
       </c>
       <c r="F17">
-        <v>4.77018424482651</v>
+        <v>4.668435990619315</v>
       </c>
       <c r="G17">
-        <v>0.0007031521543733614</v>
+        <v>4.867065442957426</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1301302178802359</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01872886126973228</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.560510814014606</v>
       </c>
       <c r="K17">
-        <v>12.26323754722318</v>
+        <v>3.510519369659548</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1264109361562937</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7278897786971612</v>
+        <v>0.05698996948704504</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2281487496506571</v>
+        <v>0.1020605506950325</v>
       </c>
       <c r="D18">
-        <v>0.08962872505088626</v>
+        <v>0.03948416160645252</v>
       </c>
       <c r="E18">
-        <v>2.305466065187971</v>
+        <v>0.05589083515372906</v>
       </c>
       <c r="F18">
-        <v>4.629715324081729</v>
+        <v>4.866502935685503</v>
       </c>
       <c r="G18">
-        <v>0.0007068786840091581</v>
+        <v>5.054604407756358</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07721189075014223</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.018365642919</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.655765270133031</v>
       </c>
       <c r="K18">
-        <v>11.89071349782682</v>
+        <v>3.658178441823594</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1482487934305574</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7319372175977037</v>
+        <v>0.06859609946545575</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2257603000491173</v>
+        <v>0.1045645022252071</v>
       </c>
       <c r="D19">
-        <v>0.08880799123214445</v>
+        <v>0.03608862653165446</v>
       </c>
       <c r="E19">
-        <v>2.279054125189703</v>
+        <v>0.06461928509720849</v>
       </c>
       <c r="F19">
-        <v>4.582731213591359</v>
+        <v>5.215071789291954</v>
       </c>
       <c r="G19">
-        <v>0.000708136330805619</v>
+        <v>5.397137242653628</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03320121861124647</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02014895952068496</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.826044097055956</v>
       </c>
       <c r="K19">
-        <v>11.76571102047933</v>
+        <v>3.91637746741327</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1852595678549491</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7334057521129722</v>
+        <v>0.09122472558105699</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2365903521596664</v>
+        <v>0.1152514252534083</v>
       </c>
       <c r="D20">
-        <v>0.09258317805998928</v>
+        <v>0.03289594150366071</v>
       </c>
       <c r="E20">
-        <v>2.399259260923841</v>
+        <v>0.08608800093998248</v>
       </c>
       <c r="F20">
-        <v>4.796465256210155</v>
+        <v>6.015755612271619</v>
       </c>
       <c r="G20">
-        <v>0.0007024603689806952</v>
+        <v>6.209027552810483</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01279809981304547</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02817223232779842</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.223690796215919</v>
       </c>
       <c r="K20">
-        <v>12.33273891241834</v>
+        <v>4.513596044724665</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2648455766956062</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7271887281124663</v>
+        <v>0.1431237771632965</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2746345192095134</v>
+        <v>0.1312413480093078</v>
       </c>
       <c r="D21">
-        <v>0.1069361890975955</v>
+        <v>0.03584648048501649</v>
       </c>
       <c r="E21">
-        <v>2.831046788584743</v>
+        <v>0.09686989686520953</v>
       </c>
       <c r="F21">
-        <v>5.561099395944069</v>
+        <v>6.771254762880289</v>
       </c>
       <c r="G21">
-        <v>0.0006830086458079412</v>
+        <v>7.017179383886969</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02232373818734112</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.04360525079851563</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.611540863029745</v>
       </c>
       <c r="K21">
-        <v>14.3295556398773</v>
+        <v>5.081512821431801</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3025816080359576</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7140767195373314</v>
+        <v>0.161979860182953</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3010609200834296</v>
+        <v>0.1421367374501123</v>
       </c>
       <c r="D22">
-        <v>0.1179134372238622</v>
+        <v>0.03814450375540446</v>
       </c>
       <c r="E22">
-        <v>3.14051934169207</v>
+        <v>0.1030944898039383</v>
       </c>
       <c r="F22">
-        <v>6.104653965544742</v>
+        <v>7.255085933479137</v>
       </c>
       <c r="G22">
-        <v>0.0006698736084370544</v>
+        <v>7.537651265592331</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02977785047775017</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05509745259958443</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3.861199896618928</v>
       </c>
       <c r="K22">
-        <v>15.72176434085156</v>
+        <v>5.447578079184183</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3244798203970731</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7126572134354348</v>
+        <v>0.1713269469702823</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2867891148864032</v>
+        <v>0.1365757987336504</v>
       </c>
       <c r="D23">
-        <v>0.1118815825645925</v>
+        <v>0.03704178344090181</v>
       </c>
       <c r="E23">
-        <v>2.972353967554525</v>
+        <v>0.09987400874012842</v>
       </c>
       <c r="F23">
-        <v>5.809847906312058</v>
+        <v>7.009224528414961</v>
       </c>
       <c r="G23">
-        <v>0.0006769331160441306</v>
+        <v>7.273727228164034</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02575591140795153</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04871446557289794</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.734799668035123</v>
       </c>
       <c r="K23">
-        <v>14.96931631704217</v>
+        <v>5.263977695766869</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3134547616489698</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7126581903260529</v>
+        <v>0.1659229853602397</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2359900954380976</v>
+        <v>0.1159890558334844</v>
       </c>
       <c r="D24">
-        <v>0.0923703334913526</v>
+        <v>0.03274761809393212</v>
       </c>
       <c r="E24">
-        <v>2.39256677868741</v>
+        <v>0.08777282928358154</v>
       </c>
       <c r="F24">
-        <v>4.784572719866929</v>
+        <v>6.069153638233644</v>
       </c>
       <c r="G24">
-        <v>0.0007027732038338414</v>
+        <v>6.263521775796846</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01298749283284495</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02810897822540692</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.25076132510037</v>
       </c>
       <c r="K24">
-        <v>12.30129610425939</v>
+        <v>4.557079857372827</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2712951592975941</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7275037935187072</v>
+        <v>0.1464707323167715</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1859800087811436</v>
+        <v>0.09538517835402516</v>
       </c>
       <c r="D25">
-        <v>0.07613226665629469</v>
+        <v>0.02826384619492828</v>
       </c>
       <c r="E25">
-        <v>1.846884705234217</v>
+        <v>0.07517434320817173</v>
       </c>
       <c r="F25">
-        <v>3.813269275558326</v>
+        <v>5.076125250050268</v>
       </c>
       <c r="G25">
-        <v>0.0007296390833789929</v>
+        <v>5.196115308127617</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003935689485539351</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01216183027853646</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.739593962323454</v>
       </c>
       <c r="K25">
-        <v>9.68752000852777</v>
+        <v>3.808810435224757</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2270184488287441</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.766305536931398</v>
+        <v>0.126080505201756</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08182454940111406</v>
+        <v>0.07218349927399004</v>
       </c>
       <c r="D2">
-        <v>0.02533328930336154</v>
+        <v>0.01902773504599153</v>
       </c>
       <c r="E2">
-        <v>0.0663980685109884</v>
+        <v>0.05809582459066398</v>
       </c>
       <c r="F2">
-        <v>4.387470551542748</v>
+        <v>3.408981692629908</v>
       </c>
       <c r="G2">
-        <v>4.456859884884494</v>
+        <v>3.33625262573122</v>
       </c>
       <c r="H2">
-        <v>0.0005998645117561985</v>
+        <v>0.0002062706693068961</v>
       </c>
       <c r="I2">
-        <v>0.004284221002011979</v>
+        <v>0.003177040361125094</v>
       </c>
       <c r="J2">
-        <v>2.386376533931298</v>
+        <v>1.907763395296939</v>
       </c>
       <c r="K2">
-        <v>3.294305411816055</v>
+        <v>2.37946501301542</v>
       </c>
       <c r="L2">
-        <v>0.19664500463292</v>
+        <v>0.9670910221900186</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8296514657683787</v>
       </c>
       <c r="N2">
-        <v>0.1104819400747417</v>
+        <v>0.1459232761187366</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1562790644380954</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07262598916319618</v>
+        <v>0.06230629752339922</v>
       </c>
       <c r="D3">
-        <v>0.02320158394434912</v>
+        <v>0.01839161451892757</v>
       </c>
       <c r="E3">
-        <v>0.06038726921553383</v>
+        <v>0.05363773061147548</v>
       </c>
       <c r="F3">
-        <v>3.908655432146588</v>
+        <v>3.064724156013227</v>
       </c>
       <c r="G3">
-        <v>3.94190605893337</v>
+        <v>2.974980664557847</v>
       </c>
       <c r="H3">
-        <v>7.026511956720327E-06</v>
+        <v>6.270411385500552E-05</v>
       </c>
       <c r="I3">
-        <v>0.001367502881608029</v>
+        <v>0.001227912066621428</v>
       </c>
       <c r="J3">
-        <v>2.140171505158037</v>
+        <v>1.727583627992487</v>
       </c>
       <c r="K3">
-        <v>2.932511442898118</v>
+        <v>2.141645018732405</v>
       </c>
       <c r="L3">
-        <v>0.17536005254874</v>
+        <v>0.8977549931113629</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7199827512849737</v>
       </c>
       <c r="N3">
-        <v>0.1006048473441084</v>
+        <v>0.1321534859479598</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1418439848030957</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06710514387947253</v>
+        <v>0.05645971590696419</v>
       </c>
       <c r="D4">
-        <v>0.02189533333412186</v>
+        <v>0.01799967497377075</v>
       </c>
       <c r="E4">
-        <v>0.05671728981401181</v>
+        <v>0.05089467821021465</v>
       </c>
       <c r="F4">
-        <v>3.616124432979035</v>
+        <v>2.853286502329468</v>
       </c>
       <c r="G4">
-        <v>3.627178227483341</v>
+        <v>2.753403971381772</v>
       </c>
       <c r="H4">
-        <v>0.0003914574179892938</v>
+        <v>0.0004858657694626345</v>
       </c>
       <c r="I4">
-        <v>0.0005500893827941056</v>
+        <v>0.0006440883350418147</v>
       </c>
       <c r="J4">
-        <v>1.98977070212149</v>
+        <v>1.616420181441384</v>
       </c>
       <c r="K4">
-        <v>2.71105066534848</v>
+        <v>1.995092870056581</v>
       </c>
       <c r="L4">
-        <v>0.1623285517425757</v>
+        <v>0.8539981513035571</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6540678899497649</v>
       </c>
       <c r="N4">
-        <v>0.09460967124432074</v>
+        <v>0.1236521364740284</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1330846905835159</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06481207330397698</v>
+        <v>0.05422498481859961</v>
       </c>
       <c r="D5">
-        <v>0.0213336053073121</v>
+        <v>0.01782780947381646</v>
       </c>
       <c r="E5">
-        <v>0.05519880670640021</v>
+        <v>0.0497537294157322</v>
       </c>
       <c r="F5">
-        <v>3.494154860117618</v>
+        <v>2.764615056254712</v>
       </c>
       <c r="G5">
-        <v>3.495802225928003</v>
+        <v>2.660428358301999</v>
       </c>
       <c r="H5">
-        <v>0.0007268371765025705</v>
+        <v>0.0007822140653344078</v>
       </c>
       <c r="I5">
-        <v>0.0005077673943594263</v>
+        <v>0.0006274747655394819</v>
       </c>
       <c r="J5">
-        <v>1.926945410768525</v>
+        <v>1.569589774003106</v>
       </c>
       <c r="K5">
-        <v>2.618049221516642</v>
+        <v>1.93298942129411</v>
       </c>
       <c r="L5">
-        <v>0.1568615861966052</v>
+        <v>0.8349763130145931</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6267615001887776</v>
       </c>
       <c r="N5">
-        <v>0.09227655306438365</v>
+        <v>0.120053640117824</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1296541254348966</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06435065232030013</v>
+        <v>0.05397991595509311</v>
       </c>
       <c r="D6">
-        <v>0.02120447221309263</v>
+        <v>0.01778517749544406</v>
       </c>
       <c r="E6">
-        <v>0.05491539818989111</v>
+        <v>0.04953921126943328</v>
       </c>
       <c r="F6">
-        <v>3.47019647077849</v>
+        <v>2.746885689083058</v>
       </c>
       <c r="G6">
-        <v>3.469850043450606</v>
+        <v>2.641695760842254</v>
       </c>
       <c r="H6">
-        <v>0.0007977043640736703</v>
+        <v>0.0008425718991191822</v>
       </c>
       <c r="I6">
-        <v>0.0006000912837516026</v>
+        <v>0.0007365468349043169</v>
       </c>
       <c r="J6">
-        <v>1.91446055374783</v>
+        <v>1.560111296597455</v>
       </c>
       <c r="K6">
-        <v>2.599108767602388</v>
+        <v>1.919945610055763</v>
       </c>
       <c r="L6">
-        <v>0.1557587486470524</v>
+        <v>0.8307138370767433</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6212851413387384</v>
       </c>
       <c r="N6">
-        <v>0.09200712469495897</v>
+        <v>0.1193092713558244</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1292277025408808</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06684695509119987</v>
+        <v>0.05663658025542873</v>
       </c>
       <c r="D7">
-        <v>0.02178897181589434</v>
+        <v>0.01792651605783391</v>
       </c>
       <c r="E7">
-        <v>0.05661060195063605</v>
+        <v>0.05084409145032076</v>
       </c>
       <c r="F7">
-        <v>3.604272530592567</v>
+        <v>2.839098662579801</v>
       </c>
       <c r="G7">
-        <v>3.614013741877841</v>
+        <v>2.749997725737785</v>
       </c>
       <c r="H7">
-        <v>0.0004045022511784957</v>
+        <v>0.0005009439391265857</v>
       </c>
       <c r="I7">
-        <v>0.0007598796419010512</v>
+        <v>0.0009000948098139006</v>
       </c>
       <c r="J7">
-        <v>1.983270836917455</v>
+        <v>1.595363472622807</v>
       </c>
       <c r="K7">
-        <v>2.700185688863343</v>
+        <v>1.983414846533648</v>
       </c>
       <c r="L7">
-        <v>0.1617188792595456</v>
+        <v>0.8494612689537746</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6498229346912012</v>
       </c>
       <c r="N7">
-        <v>0.09489884354908895</v>
+        <v>0.1231417080604302</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1333915979336311</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07831094645911207</v>
+        <v>0.06874280334351823</v>
       </c>
       <c r="D8">
-        <v>0.02446311662895084</v>
+        <v>0.01865337949306678</v>
       </c>
       <c r="E8">
-        <v>0.06420290298384579</v>
+        <v>0.05657985420060818</v>
       </c>
       <c r="F8">
-        <v>4.208302791513489</v>
+        <v>3.26336647851042</v>
       </c>
       <c r="G8">
-        <v>4.263625513450421</v>
+        <v>3.222592801063143</v>
       </c>
       <c r="H8">
-        <v>0.0002227956972307155</v>
+        <v>3.962490284559195E-05</v>
       </c>
       <c r="I8">
-        <v>0.003274654776951991</v>
+        <v>0.002630858177559148</v>
       </c>
       <c r="J8">
-        <v>2.293707953121014</v>
+        <v>1.787042160666033</v>
       </c>
       <c r="K8">
-        <v>3.156465596380698</v>
+        <v>2.276320625788301</v>
       </c>
       <c r="L8">
-        <v>0.1885703372095264</v>
+        <v>0.93527316772456</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7836955779137185</v>
       </c>
       <c r="N8">
-        <v>0.1074883659507151</v>
+        <v>0.1404417882472586</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1516818955900376</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1025916069075183</v>
+        <v>0.09438659803850413</v>
       </c>
       <c r="D9">
-        <v>0.02994765108857322</v>
+        <v>0.02026335159025194</v>
       </c>
       <c r="E9">
-        <v>0.07953718864648884</v>
+        <v>0.06785110693895291</v>
       </c>
       <c r="F9">
-        <v>5.427440446364528</v>
+        <v>4.128984681915824</v>
       </c>
       <c r="G9">
-        <v>5.574604782314225</v>
+        <v>4.145165527180211</v>
       </c>
       <c r="H9">
-        <v>0.00648985028861282</v>
+        <v>0.003569589387790506</v>
       </c>
       <c r="I9">
-        <v>0.0165977778892179</v>
+        <v>0.01103456282985071</v>
       </c>
       <c r="J9">
-        <v>2.921142309375909</v>
+        <v>2.224476728643992</v>
       </c>
       <c r="K9">
-        <v>4.077311460301075</v>
+        <v>2.873422018185778</v>
       </c>
       <c r="L9">
-        <v>0.2428270310990612</v>
+        <v>1.104354546072329</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.067735220358514</v>
       </c>
       <c r="N9">
-        <v>0.1322927795473277</v>
+        <v>0.1750943649493166</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1879322044838432</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.120984446021497</v>
+        <v>0.1145068600054202</v>
       </c>
       <c r="D10">
-        <v>0.03439501328900718</v>
+        <v>0.02149176429711019</v>
       </c>
       <c r="E10">
-        <v>0.08897758871863282</v>
+        <v>0.07461427150407296</v>
       </c>
       <c r="F10">
-        <v>6.27569081957094</v>
+        <v>4.692975796954244</v>
       </c>
       <c r="G10">
-        <v>6.490820034371836</v>
+        <v>4.824664401022346</v>
       </c>
       <c r="H10">
-        <v>0.0158007362320074</v>
+        <v>0.009228590228200773</v>
       </c>
       <c r="I10">
-        <v>0.03256201154284888</v>
+        <v>0.02086947266918315</v>
       </c>
       <c r="J10">
-        <v>3.35903941631625</v>
+        <v>2.429134297431574</v>
       </c>
       <c r="K10">
-        <v>4.715189259244397</v>
+        <v>3.258538568539905</v>
       </c>
       <c r="L10">
-        <v>0.2756108215026956</v>
+        <v>1.203999896609574</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.263960895520825</v>
       </c>
       <c r="N10">
-        <v>0.1459676825816203</v>
+        <v>0.1944171589360053</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2081673903435686</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.123545341605281</v>
+        <v>0.1249801288064418</v>
       </c>
       <c r="D11">
-        <v>0.03976075222946562</v>
+        <v>0.02361167115576457</v>
       </c>
       <c r="E11">
-        <v>0.07664962729184843</v>
+        <v>0.06418400263900459</v>
       </c>
       <c r="F11">
-        <v>6.138711620542466</v>
+        <v>4.515706599810869</v>
       </c>
       <c r="G11">
-        <v>6.386144671176851</v>
+        <v>4.826923624977553</v>
       </c>
       <c r="H11">
-        <v>0.03547424256118603</v>
+        <v>0.02826020179920974</v>
       </c>
       <c r="I11">
-        <v>0.03682664814838432</v>
+        <v>0.02366200247481576</v>
       </c>
       <c r="J11">
-        <v>3.300995219254276</v>
+        <v>2.188951254596446</v>
       </c>
       <c r="K11">
-        <v>4.612067358102735</v>
+        <v>3.132141387082115</v>
       </c>
       <c r="L11">
-        <v>0.2283209902386716</v>
+        <v>1.140490359560772</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.234684097570749</v>
       </c>
       <c r="N11">
-        <v>0.1112841967495228</v>
+        <v>0.157893163680292</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1606394258651846</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1226235956058925</v>
+        <v>0.1295256764417729</v>
       </c>
       <c r="D12">
-        <v>0.04382758375016493</v>
+        <v>0.02552838757023679</v>
       </c>
       <c r="E12">
-        <v>0.06711952714825298</v>
+        <v>0.05649441760674812</v>
       </c>
       <c r="F12">
-        <v>5.858927981788327</v>
+        <v>4.27865359183707</v>
       </c>
       <c r="G12">
-        <v>6.120576381604906</v>
+        <v>4.670949094551702</v>
       </c>
       <c r="H12">
-        <v>0.07336288304920657</v>
+        <v>0.06641332978696823</v>
       </c>
       <c r="I12">
-        <v>0.03644790180061985</v>
+        <v>0.02347308446625718</v>
       </c>
       <c r="J12">
-        <v>3.167309177470258</v>
+        <v>2.012106943331275</v>
       </c>
       <c r="K12">
-        <v>4.405052161319134</v>
+        <v>2.969437093286544</v>
       </c>
       <c r="L12">
-        <v>0.1889842008045122</v>
+        <v>1.075937808941234</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.177363597902627</v>
       </c>
       <c r="N12">
-        <v>0.08561144698972711</v>
+        <v>0.1302896281500878</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1229811830673242</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1185789032963385</v>
+        <v>0.1307607601496912</v>
       </c>
       <c r="D13">
-        <v>0.04688550119868751</v>
+        <v>0.02757886330370241</v>
       </c>
       <c r="E13">
-        <v>0.05910801724784864</v>
+        <v>0.05045820016868419</v>
       </c>
       <c r="F13">
-        <v>5.439243399959253</v>
+        <v>3.980279400053149</v>
       </c>
       <c r="G13">
-        <v>5.69991557804957</v>
+        <v>4.354208331065081</v>
       </c>
       <c r="H13">
-        <v>0.1267818791455966</v>
+        <v>0.1208352286064667</v>
       </c>
       <c r="I13">
-        <v>0.03263522029383115</v>
+        <v>0.02130474390287418</v>
       </c>
       <c r="J13">
-        <v>2.959732078788704</v>
+        <v>1.895005673473037</v>
       </c>
       <c r="K13">
-        <v>4.092634540760542</v>
+        <v>2.76567925264844</v>
       </c>
       <c r="L13">
-        <v>0.1530218594443546</v>
+        <v>1.004746105049307</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.094315425853793</v>
       </c>
       <c r="N13">
-        <v>0.06606419965568833</v>
+        <v>0.1074333680035942</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.09169975954403142</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1144813465556709</v>
+        <v>0.1303809290712081</v>
       </c>
       <c r="D14">
-        <v>0.04853239490238792</v>
+        <v>0.02917256603603136</v>
       </c>
       <c r="E14">
-        <v>0.0546078168027595</v>
+        <v>0.04744046115803036</v>
       </c>
       <c r="F14">
-        <v>5.08323939442954</v>
+        <v>3.741837566700696</v>
       </c>
       <c r="G14">
-        <v>5.335953054213974</v>
+        <v>4.062077761020987</v>
       </c>
       <c r="H14">
-        <v>0.1739852057254581</v>
+        <v>0.1689852122438396</v>
       </c>
       <c r="I14">
-        <v>0.02872472513066171</v>
+        <v>0.01909088779364154</v>
       </c>
       <c r="J14">
-        <v>2.781243915702419</v>
+        <v>1.834257848286711</v>
       </c>
       <c r="K14">
-        <v>3.826491009278584</v>
+        <v>2.602648109993879</v>
       </c>
       <c r="L14">
-        <v>0.1305207392972996</v>
+        <v>0.9508854676092682</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.024248431134566</v>
       </c>
       <c r="N14">
-        <v>0.05624165135769843</v>
+        <v>0.09444793699950971</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07392240423688179</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1127721992980923</v>
+        <v>0.1297639786323757</v>
       </c>
       <c r="D15">
-        <v>0.04860788553493478</v>
+        <v>0.02954453483301478</v>
       </c>
       <c r="E15">
-        <v>0.0534791074592702</v>
+        <v>0.04674901427237299</v>
       </c>
       <c r="F15">
-        <v>4.964193764518257</v>
+        <v>3.66682812623921</v>
       </c>
       <c r="G15">
-        <v>5.211344998243362</v>
+        <v>3.956527433474122</v>
       </c>
       <c r="H15">
-        <v>0.1856188285667173</v>
+        <v>0.1809957656410148</v>
       </c>
       <c r="I15">
-        <v>0.027195880843915</v>
+        <v>0.0182679374802035</v>
       </c>
       <c r="J15">
-        <v>2.720603773170637</v>
+        <v>1.826296985871892</v>
       </c>
       <c r="K15">
-        <v>3.73656558540614</v>
+        <v>2.550829902758196</v>
       </c>
       <c r="L15">
-        <v>0.1248806003173755</v>
+        <v>0.9349287474394288</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.000606250779171</v>
       </c>
       <c r="N15">
-        <v>0.05427750208416882</v>
+        <v>0.09140614542314118</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07010074134129951</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1056907598023393</v>
+        <v>0.1224755630187957</v>
       </c>
       <c r="D16">
-        <v>0.04579876184330089</v>
+        <v>0.02917426088518837</v>
       </c>
       <c r="E16">
-        <v>0.05134953527397013</v>
+        <v>0.04527822523072222</v>
       </c>
       <c r="F16">
-        <v>4.691345188140389</v>
+        <v>3.526232669280517</v>
       </c>
       <c r="G16">
-        <v>4.908617355063654</v>
+        <v>3.672079035360667</v>
       </c>
       <c r="H16">
-        <v>0.1694141810151422</v>
+        <v>0.1661708290886139</v>
       </c>
       <c r="I16">
-        <v>0.02122388945793752</v>
+        <v>0.01474494064678833</v>
       </c>
       <c r="J16">
-        <v>2.577050621330898</v>
+        <v>1.885879015965543</v>
       </c>
       <c r="K16">
-        <v>3.529896780680829</v>
+        <v>2.4548986827335</v>
       </c>
       <c r="L16">
-        <v>0.1195292937687249</v>
+        <v>0.9149976195357681</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9455752105334767</v>
       </c>
       <c r="N16">
-        <v>0.05326270216427886</v>
+        <v>0.0885951880830298</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06940225001167022</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1023456312620405</v>
+        <v>0.1167644862784556</v>
       </c>
       <c r="D17">
-        <v>0.04278648095490922</v>
+        <v>0.02781939248482956</v>
       </c>
       <c r="E17">
-        <v>0.05179364923256635</v>
+        <v>0.04539203635942313</v>
       </c>
       <c r="F17">
-        <v>4.668435990619315</v>
+        <v>3.537783821347261</v>
       </c>
       <c r="G17">
-        <v>4.867065442957426</v>
+        <v>3.6166483234922</v>
       </c>
       <c r="H17">
-        <v>0.1301302178802359</v>
+        <v>0.1274358607588653</v>
       </c>
       <c r="I17">
-        <v>0.01872886126973228</v>
+        <v>0.01322252028836246</v>
       </c>
       <c r="J17">
-        <v>2.560510814014606</v>
+        <v>1.94531273386454</v>
       </c>
       <c r="K17">
-        <v>3.510519369659548</v>
+        <v>2.462678118031732</v>
       </c>
       <c r="L17">
-        <v>0.1264109361562937</v>
+        <v>0.9268189365577229</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9382152285683674</v>
       </c>
       <c r="N17">
-        <v>0.05698996948704504</v>
+        <v>0.09261522155560797</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07746487702283389</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1020605506950325</v>
+        <v>0.1117507309932577</v>
       </c>
       <c r="D18">
-        <v>0.03948416160645252</v>
+        <v>0.02580258058729257</v>
       </c>
       <c r="E18">
-        <v>0.05589083515372906</v>
+        <v>0.04820963683227442</v>
       </c>
       <c r="F18">
-        <v>4.866502935685503</v>
+        <v>3.699206512964736</v>
       </c>
       <c r="G18">
-        <v>5.054604407756358</v>
+        <v>3.743196369291752</v>
       </c>
       <c r="H18">
-        <v>0.07721189075014223</v>
+        <v>0.07451770125300783</v>
       </c>
       <c r="I18">
-        <v>0.018365642919</v>
+        <v>0.01281922925758572</v>
       </c>
       <c r="J18">
-        <v>2.655765270133031</v>
+        <v>2.046529921979243</v>
       </c>
       <c r="K18">
-        <v>3.658178441823594</v>
+        <v>2.574486889935756</v>
       </c>
       <c r="L18">
-        <v>0.1482487934305574</v>
+        <v>0.9728276309507038</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9758314801099175</v>
       </c>
       <c r="N18">
-        <v>0.06859609946545575</v>
+        <v>0.1064311943314671</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.0975024427102511</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1045645022252071</v>
+        <v>0.1089127529197214</v>
       </c>
       <c r="D19">
-        <v>0.03608862653165446</v>
+        <v>0.02357051122691445</v>
       </c>
       <c r="E19">
-        <v>0.06461928509720849</v>
+        <v>0.05494029800888001</v>
       </c>
       <c r="F19">
-        <v>5.215071789291954</v>
+        <v>3.962790103886533</v>
       </c>
       <c r="G19">
-        <v>5.397137242653628</v>
+        <v>3.988000968990292</v>
       </c>
       <c r="H19">
-        <v>0.03320121861124647</v>
+        <v>0.0300264269438415</v>
       </c>
       <c r="I19">
-        <v>0.02014895952068496</v>
+        <v>0.01390550892433495</v>
       </c>
       <c r="J19">
-        <v>2.826044097055956</v>
+        <v>2.18020013880718</v>
       </c>
       <c r="K19">
-        <v>3.91637746741327</v>
+        <v>2.754289009045678</v>
       </c>
       <c r="L19">
-        <v>0.1852595678549491</v>
+        <v>1.040310893778923</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.043863214638094</v>
       </c>
       <c r="N19">
-        <v>0.09122472558105699</v>
+        <v>0.1316314493679265</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1317889193620729</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1152514252534083</v>
+        <v>0.110808845908835</v>
       </c>
       <c r="D20">
-        <v>0.03289594150366071</v>
+        <v>0.02116390357646125</v>
       </c>
       <c r="E20">
-        <v>0.08608800093998248</v>
+        <v>0.07240741539103013</v>
       </c>
       <c r="F20">
-        <v>6.015755612271619</v>
+        <v>4.534135230842395</v>
       </c>
       <c r="G20">
-        <v>6.209027552810483</v>
+        <v>4.589267583465471</v>
       </c>
       <c r="H20">
-        <v>0.01279809981304547</v>
+        <v>0.007433242925186434</v>
       </c>
       <c r="I20">
-        <v>0.02817223232779842</v>
+        <v>0.01868143922810983</v>
       </c>
       <c r="J20">
-        <v>3.223690796215919</v>
+        <v>2.417136350843009</v>
       </c>
       <c r="K20">
-        <v>4.513596044724665</v>
+        <v>3.144930182467547</v>
       </c>
       <c r="L20">
-        <v>0.2648455766956062</v>
+        <v>1.173578279074206</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.207005312238095</v>
       </c>
       <c r="N20">
-        <v>0.1431237771632965</v>
+        <v>0.1880530080925951</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2038931758990543</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1312413480093078</v>
+        <v>0.1237201462804407</v>
       </c>
       <c r="D21">
-        <v>0.03584648048501649</v>
+        <v>0.02139439721183933</v>
       </c>
       <c r="E21">
-        <v>0.09686989686520953</v>
+        <v>0.08120319788506336</v>
       </c>
       <c r="F21">
-        <v>6.771254762880289</v>
+        <v>4.948023792173984</v>
       </c>
       <c r="G21">
-        <v>7.017179383886969</v>
+        <v>5.322708409071993</v>
       </c>
       <c r="H21">
-        <v>0.02232373818734112</v>
+        <v>0.01292020212849931</v>
       </c>
       <c r="I21">
-        <v>0.04360525079851563</v>
+        <v>0.0275296127524598</v>
       </c>
       <c r="J21">
-        <v>3.611540863029745</v>
+        <v>2.315062417638387</v>
       </c>
       <c r="K21">
-        <v>5.081512821431801</v>
+        <v>3.42573084302704</v>
       </c>
       <c r="L21">
-        <v>0.3025816080359576</v>
+        <v>1.24355103847455</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.354224516545514</v>
       </c>
       <c r="N21">
-        <v>0.161979860182953</v>
+        <v>0.2107456330174102</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2298857158409646</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1421367374501123</v>
+        <v>0.1321720027277919</v>
       </c>
       <c r="D22">
-        <v>0.03814450375540446</v>
+        <v>0.02177321803633525</v>
       </c>
       <c r="E22">
-        <v>0.1030944898039383</v>
+        <v>0.08630302188807448</v>
       </c>
       <c r="F22">
-        <v>7.255085933479137</v>
+        <v>5.20010358554822</v>
       </c>
       <c r="G22">
-        <v>7.537651265592331</v>
+        <v>5.812358722385341</v>
       </c>
       <c r="H22">
-        <v>0.02977785047775017</v>
+        <v>0.01720431723755977</v>
       </c>
       <c r="I22">
-        <v>0.05509745259958443</v>
+        <v>0.03382134147554705</v>
       </c>
       <c r="J22">
-        <v>3.861199896618928</v>
+        <v>2.226818677910103</v>
       </c>
       <c r="K22">
-        <v>5.447578079184183</v>
+        <v>3.598242346349906</v>
       </c>
       <c r="L22">
-        <v>0.3244798203970731</v>
+        <v>1.284600096970735</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.447494603190975</v>
       </c>
       <c r="N22">
-        <v>0.1713269469702823</v>
+        <v>0.2232426720138463</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2428268270607958</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1365757987336504</v>
+        <v>0.1275302775239737</v>
       </c>
       <c r="D23">
-        <v>0.03704178344090181</v>
+        <v>0.02163918767379336</v>
       </c>
       <c r="E23">
-        <v>0.09987400874012842</v>
+        <v>0.0835515256144852</v>
       </c>
       <c r="F23">
-        <v>7.009224528414961</v>
+        <v>5.088452882608522</v>
       </c>
       <c r="G23">
-        <v>7.273727228164034</v>
+        <v>5.541823074765716</v>
       </c>
       <c r="H23">
-        <v>0.02575591140795153</v>
+        <v>0.01492998328170048</v>
       </c>
       <c r="I23">
-        <v>0.04871446557289794</v>
+        <v>0.03021980742441954</v>
       </c>
       <c r="J23">
-        <v>3.734799668035123</v>
+        <v>2.317671131282907</v>
       </c>
       <c r="K23">
-        <v>5.263977695766869</v>
+        <v>3.524336042189304</v>
       </c>
       <c r="L23">
-        <v>0.3134547616489698</v>
+        <v>1.269213131926648</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.404849237900322</v>
       </c>
       <c r="N23">
-        <v>0.1659229853602397</v>
+        <v>0.2172211168868188</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2355086785172986</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1159890558334844</v>
+        <v>0.1097252194147842</v>
       </c>
       <c r="D24">
-        <v>0.03274761809393212</v>
+        <v>0.02105742743856176</v>
       </c>
       <c r="E24">
-        <v>0.08777282928358154</v>
+        <v>0.07382001965456197</v>
       </c>
       <c r="F24">
-        <v>6.069153638233644</v>
+        <v>4.5758074783935</v>
       </c>
       <c r="G24">
-        <v>6.263521775796846</v>
+        <v>4.628583936412554</v>
       </c>
       <c r="H24">
-        <v>0.01298749283284495</v>
+        <v>0.007511969430783916</v>
       </c>
       <c r="I24">
-        <v>0.02810897822540692</v>
+        <v>0.01836565310743143</v>
       </c>
       <c r="J24">
-        <v>3.25076132510037</v>
+        <v>2.44062169201618</v>
       </c>
       <c r="K24">
-        <v>4.557079857372827</v>
+        <v>3.176811809658076</v>
       </c>
       <c r="L24">
-        <v>0.2712951592975941</v>
+        <v>1.18567679577545</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.218945335904706</v>
       </c>
       <c r="N24">
-        <v>0.1464707323167715</v>
+        <v>0.1928707931363647</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.20841483657086</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09538517835402516</v>
+        <v>0.08804812455909428</v>
       </c>
       <c r="D25">
-        <v>0.02826384619492828</v>
+        <v>0.01980118863369462</v>
       </c>
       <c r="E25">
-        <v>0.07517434320817173</v>
+        <v>0.06461394322470149</v>
       </c>
       <c r="F25">
-        <v>5.076125250050268</v>
+        <v>3.88616948143337</v>
       </c>
       <c r="G25">
-        <v>5.196115308127617</v>
+        <v>3.868025638879431</v>
       </c>
       <c r="H25">
-        <v>0.003935689485539351</v>
+        <v>0.002061749656225631</v>
       </c>
       <c r="I25">
-        <v>0.01216183027853646</v>
+        <v>0.008503748915392073</v>
       </c>
       <c r="J25">
-        <v>2.739593962323454</v>
+        <v>2.120714501915984</v>
       </c>
       <c r="K25">
-        <v>3.808810435224757</v>
+        <v>2.703277809621767</v>
       </c>
       <c r="L25">
-        <v>0.2270184488287441</v>
+        <v>1.056296819956785</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9861223282211284</v>
       </c>
       <c r="N25">
-        <v>0.126080505201756</v>
+        <v>0.1650735439757156</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1787825087694301</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
